--- a/DATOS-MOTORES-PLANTA.xlsx
+++ b/DATOS-MOTORES-PLANTA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E303BA-6E16-47A1-AA2C-B7CA8E1A0F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1366DF-9883-48F4-BF40-0D61D538A87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="16990" windowHeight="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOTORES" sheetId="2" r:id="rId1"/>
@@ -31,8 +31,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+    <author>tc={28565D04-7D80-4121-A257-C69CD155B9C2}</author>
+  </authors>
+  <commentList>
+    <comment ref="M80" authorId="0" shapeId="0" xr:uid="{ED9E6B91-AC23-4D40-9C5D-1F0A5AB7AA2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+REVISAR SI PERTENCE AL MOLIDO EN SECO EN ORACLE YA QUE ES DE 440V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N86" authorId="1" shapeId="0" xr:uid="{28565D04-7D80-4121-A257-C69CD155B9C2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CAMBIAR DATOS EN ORACLE
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="635">
   <si>
     <t>Ubicación</t>
   </si>
@@ -1511,9 +1555,6 @@
     <t>EMMOT179</t>
   </si>
   <si>
-    <t>UMMOT016</t>
-  </si>
-  <si>
     <t>PRENSA 1</t>
   </si>
   <si>
@@ -1532,6 +1573,9 @@
     <t>132S2-2</t>
   </si>
   <si>
+    <t>CHINA</t>
+  </si>
+  <si>
     <t>MOTOR TRIFASICO CON BASE 7.5 kW 10HP 220-440 VAC 3600 RPM 2 POLOS 132S B3</t>
   </si>
   <si>
@@ -1607,18 +1651,6 @@
     <t xml:space="preserve">MOTOR TRIFASICO 44.5kW 60HP 220-440VAC 1800RPM 4POLOS CON BASE 225S B3 </t>
   </si>
   <si>
-    <t xml:space="preserve">MOTOR TRIFASICO 18.5kW 21.3HP 240-440VAC 3600RPM 2 POLOS CON BASE 160ML B3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOTOR TRIFASICO 15kW 20HP 220-440VAC 3600RPM CON BASE 2POLOS 160M B3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOTOR TRIFASICO 21.3kW 28.5HP 220-440VAC 3600RPM  CON BASE 2POLOS 160L B3 </t>
-  </si>
-  <si>
-    <t>160m</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOTOR TRIFASICO 18.5kW 25HP 220-440VAC 3600RPM 2POLOS CON BASE 160L B3 </t>
   </si>
   <si>
@@ -1628,9 +1660,6 @@
     <t xml:space="preserve">MOTOR TRIFASICO 15kW 20HP 240-440VAC 1800RPM 4 POLOS CON BASE 160ML B3 </t>
   </si>
   <si>
-    <t>UMMOT084</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOTOR TRIFASICO 11 kW 240-440VAC 1800RPM 4POLOS CON BASE 132SMG B3 </t>
   </si>
   <si>
@@ -1706,15 +1735,6 @@
     <t>MOTOR TRIFASICO 30kW 40HP 240-440VAC 1800RPM 4POLOS CON BASE 200L B3</t>
   </si>
   <si>
-    <t>64,1</t>
-  </si>
-  <si>
-    <t>100,8</t>
-  </si>
-  <si>
-    <t>76,2</t>
-  </si>
-  <si>
     <t>180ML</t>
   </si>
   <si>
@@ -1892,44 +1912,105 @@
     <t xml:space="preserve">MOTOR TRIFASICO 110kW 147.5HP 240-440VAC 1800RPM 4 POLOS CON BASE 315S B3 </t>
   </si>
   <si>
+    <t>VARIADOR</t>
+  </si>
+  <si>
+    <t>6310 2RS1 C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTOR TRIFASICO 18.5kW 25HP 240-440VAC 3600RPM 2 POLOS CON BASE 160ML B3 </t>
+  </si>
+  <si>
+    <t>ESTR-TRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTOR TRIFASICO 18.5kW 25HP 220-440VAC 3600RPM CON BASE 2POLOS 160M B3 </t>
+  </si>
+  <si>
+    <t>UMMOT080</t>
+  </si>
+  <si>
+    <t>22218 EK/C3</t>
+  </si>
+  <si>
+    <t>200L-4</t>
+  </si>
+  <si>
+    <t>UMMOT030</t>
+  </si>
+  <si>
+    <t>LE-MO01-MT01</t>
+  </si>
+  <si>
+    <t>LE-MO02-MT01</t>
+  </si>
+  <si>
+    <t>LE-MO03-MT01</t>
+  </si>
+  <si>
+    <t>LE-MO04-MT01</t>
+  </si>
+  <si>
+    <t>LE-MO05-MT01</t>
+  </si>
+  <si>
+    <t>LE-MO06-MT01</t>
+  </si>
+  <si>
+    <t>LE-MO07-MT01</t>
+  </si>
+  <si>
+    <t>LE-MO08-MT01</t>
+  </si>
+  <si>
+    <t>LE-MO09-MT01</t>
+  </si>
+  <si>
+    <t>3G1C24480000611002</t>
+  </si>
+  <si>
+    <t>3G1C24480000611001</t>
+  </si>
+  <si>
+    <t>M3BP-225SMC-4</t>
+  </si>
+  <si>
+    <t>3G1C22380000321002</t>
+  </si>
+  <si>
+    <t>6313/C3</t>
+  </si>
+  <si>
+    <t>6212/C3</t>
+  </si>
+  <si>
+    <t>WEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTOR TRIFASICO 22kW 30HP 240-440VAC 3600RPM 2 POLOS CON BASE 160L B3 </t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>6309-ZZ-C3</t>
+  </si>
+  <si>
+    <t>6209-ZZ-C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+ EMMOT079</t>
+  </si>
+  <si>
     <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>LE-MO01-MT01</t>
-  </si>
-  <si>
-    <t>LE-MO02-MT01</t>
-  </si>
-  <si>
-    <t>LE-MO03-MT01</t>
-  </si>
-  <si>
-    <t>LE-MO04-MT01</t>
-  </si>
-  <si>
-    <t>LE-MO05-MT01</t>
-  </si>
-  <si>
-    <t>LE-MO06-MT01</t>
-  </si>
-  <si>
-    <t>LE-MO07-MT01</t>
-  </si>
-  <si>
-    <t>LE-MO08-MT01</t>
-  </si>
-  <si>
-    <t>LE-MO09-MT01</t>
-  </si>
-  <si>
-    <t>Rodamiento (VENTILADOR)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1970,8 +2051,35 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2044,8 +2152,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDEADB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2230,7 +2350,52 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -2252,6 +2417,32 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2294,10 +2485,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2498,15 +2690,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2518,16 +2722,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2539,23 +2746,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2563,11 +2779,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2576,22 +2795,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2605,17 +2827,29 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2625,6 +2859,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2638,19 +2881,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2668,7 +2914,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2680,7 +2926,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2710,32 +2956,39 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{06FA2C00-5490-405C-846A-84600F09214B}"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3039,6 +3292,45 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -3132,6 +3424,84 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3870,8 +4240,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDEADB"/>
       <color rgb="FFF7E5DD"/>
-      <color rgb="FFFDEADB"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3886,28 +4256,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{256F40EE-B723-4679-A20C-B3778BFC7431}" name="Table2" displayName="Table2" ref="A1:S86" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
-  <autoFilter ref="A1:S86" xr:uid="{256F40EE-B723-4679-A20C-B3778BFC7431}"/>
-  <tableColumns count="19">
-    <tableColumn id="2" xr3:uid="{8E4191AB-1841-458D-9787-F4E403AE881F}" name="ACTIVO" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{489CF6EB-5F60-4B44-98C4-6F80B1DB1395}" name="No. Articulo" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{A22C050E-4462-4C2C-81E1-A8CDAE14E36A}" name="Descripción" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{A0E0D661-C0D3-46C4-8716-2CE3FE8DA9E1}" name="Ubicación" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{DAA2789A-74D6-4CEC-8FD1-821C67936A6E}" name="FABRICANTE" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{51BA2386-348B-43B9-97A8-CC7FCDA67F8E}" name="MODELO" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{0073AF2F-855F-415D-AA6C-FF62CEDB4B89}" name="# De Serie" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{236C6C54-24F2-4D80-A4C4-8C3ADF04A4DF}" name="TIPO DE MONTAJE" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{A88105DA-06E9-41F8-BD0B-D6DD25154DFC}" name="TAMAÑO CONSTRUCTVO (FRAME)" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{0456A20C-0561-4198-AAC2-0FFE3311DC7D}" name="Tipo de conexión " dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{770C597B-9B57-4C3F-A927-6A852905FFB3}" name="CLASE DE EFICIENCIA" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{4CF0A563-627D-4909-B7F2-237DEA026720}" name="POTENCIA (kW)" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{C871FC2C-BB2B-4D90-A784-D8DB894A3DAE}" name="Tensión Nomimal (V)" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{55808FE7-8976-4967-A55A-810A69D10FD5}" name="Corriente Nominal (A)" dataDxfId="32"/>
-    <tableColumn id="16" xr3:uid="{65558936-4E22-42E8-92B3-9FCAAA0424B5}" name="FP (Cosφ  )" dataDxfId="31"/>
-    <tableColumn id="17" xr3:uid="{A05ABAED-B026-4A07-B4C0-493DE864826E}" name="Velocidad Nominal (rpm)" dataDxfId="30"/>
-    <tableColumn id="21" xr3:uid="{8B7C8EAA-2DC3-4807-946D-889D30336E54}" name="Peso (kg)" dataDxfId="29"/>
-    <tableColumn id="23" xr3:uid="{A51F6EB7-4FC5-4CDA-9E00-C7B744F41429}" name="Rodamiento (EJE)" dataDxfId="28"/>
-    <tableColumn id="24" xr3:uid="{EAD2D2FD-0952-4B1B-9DF8-A3412B8ADD94}" name="Rodamiento (VENTILADOR)" dataDxfId="27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{256F40EE-B723-4679-A20C-B3778BFC7431}" name="Table2" displayName="Table2" ref="A1:V86" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+  <autoFilter ref="A1:V86" xr:uid="{256F40EE-B723-4679-A20C-B3778BFC7431}"/>
+  <tableColumns count="22">
+    <tableColumn id="2" xr3:uid="{8E4191AB-1841-458D-9787-F4E403AE881F}" name="ACTIVO" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{489CF6EB-5F60-4B44-98C4-6F80B1DB1395}" name="No. Articulo" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{A22C050E-4462-4C2C-81E1-A8CDAE14E36A}" name="Descripción" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{A0E0D661-C0D3-46C4-8716-2CE3FE8DA9E1}" name="Ubicación" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{DAA2789A-74D6-4CEC-8FD1-821C67936A6E}" name="FABRICANTE" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{51BA2386-348B-43B9-97A8-CC7FCDA67F8E}" name="MODELO" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{0073AF2F-855F-415D-AA6C-FF62CEDB4B89}" name="# De Serie" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{236C6C54-24F2-4D80-A4C4-8C3ADF04A4DF}" name="TIPO DE MONTAJE" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{A88105DA-06E9-41F8-BD0B-D6DD25154DFC}" name="TAMAÑO CONSTRUCTVO (FRAME)" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{0456A20C-0561-4198-AAC2-0FFE3311DC7D}" name="Tipo de conexión " dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{770C597B-9B57-4C3F-A927-6A852905FFB3}" name="CLASE DE EFICIENCIA" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{4CF0A563-627D-4909-B7F2-237DEA026720}" name="POTENCIA (kW)" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{C871FC2C-BB2B-4D90-A784-D8DB894A3DAE}" name="Tensión Nomimal (V)" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{55808FE7-8976-4967-A55A-810A69D10FD5}" name="Corriente Nominal (A)" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{65558936-4E22-42E8-92B3-9FCAAA0424B5}" name="FP (Cosφ  )" dataDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{A05ABAED-B026-4A07-B4C0-493DE864826E}" name="Velocidad Nominal (rpm)" dataDxfId="33"/>
+    <tableColumn id="19" xr3:uid="{6EA6F26B-1788-48A4-A791-AFE09F8291CD}" name="Consumo enérgetico 24horas (kWH)" dataDxfId="32"/>
+    <tableColumn id="20" xr3:uid="{81BCE04F-2BF8-46B0-B342-E2A3BBBA27E1}" name="País de Origen " dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{8B7C8EAA-2DC3-4807-946D-889D30336E54}" name="Peso (kg)" dataDxfId="30"/>
+    <tableColumn id="23" xr3:uid="{A51F6EB7-4FC5-4CDA-9E00-C7B744F41429}" name="Rodamiento (EJE)" dataDxfId="29"/>
+    <tableColumn id="24" xr3:uid="{EAD2D2FD-0952-4B1B-9DF8-A3412B8ADD94}" name="Rodamiento (VENTILADOR" dataDxfId="28"/>
+    <tableColumn id="25" xr3:uid="{09ADA1ED-224B-4D5C-848B-47E87F17C127}" name="Año " dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4303,158 +4676,189 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N86" dT="2025-07-22T16:33:32.32" personId="{00000000-0000-0000-0000-000000000000}" id="{28565D04-7D80-4121-A257-C69CD155B9C2}">
+    <text xml:space="preserve">CAMBIAR DATOS EN ORACLE
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731214AF-4FD7-4F42-8356-E06FD5D5889D}">
-  <dimension ref="A1:T86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731214AF-4FD7-4F42-8356-E06FD5D5889D}">
+  <dimension ref="A1:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="58" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" style="58" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" style="58" customWidth="1"/>
-    <col min="9" max="9" width="23.6328125" style="58" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" style="58" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" style="58" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" style="109" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" style="58" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="58" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="58" customWidth="1"/>
-    <col min="16" max="16" width="23.6328125" style="58" customWidth="1"/>
-    <col min="17" max="17" width="15.1796875" style="58" customWidth="1"/>
-    <col min="18" max="18" width="22" style="58" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" style="58" customWidth="1"/>
-    <col min="21" max="16384" width="8.90625" style="58"/>
+    <col min="2" max="2" width="12.77734375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="58" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="58" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="58" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="58" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="123" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" style="58" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="58" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" style="58" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" style="58" customWidth="1"/>
+    <col min="17" max="17" width="23.109375" style="123" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" style="58" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" style="58" customWidth="1"/>
+    <col min="20" max="20" width="22" style="58" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" style="58" customWidth="1"/>
+    <col min="22" max="22" width="24.88671875" style="58" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="89" t="s">
-        <v>612</v>
-      </c>
-      <c r="B1" s="89" t="s">
+    <row r="1" spans="1:22" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="97" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="97" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="97" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="97" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="97" t="s">
         <v>480</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="97" t="s">
         <v>384</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="121" t="s">
-        <v>533</v>
-      </c>
-      <c r="M1" s="89" t="s">
+      <c r="L1" s="139" t="s">
+        <v>528</v>
+      </c>
+      <c r="M1" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="N1" s="97" t="s">
         <v>314</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="O1" s="97" t="s">
         <v>313</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="97" t="s">
         <v>320</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="139" t="s">
+        <v>310</v>
+      </c>
+      <c r="R1" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="T1" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="S1" s="89" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="107" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="129" t="s">
+      <c r="U1" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="V1" s="127" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="119" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="147" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="116" t="s">
         <v>481</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="117" t="s">
         <v>515</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="117" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="117" t="s">
         <v>381</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="117" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="117" t="s">
         <v>301</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="117" t="s">
         <v>383</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="117" t="s">
         <v>385</v>
       </c>
-      <c r="L2" s="117">
+      <c r="L2" s="135">
         <v>8.6</v>
       </c>
-      <c r="M2" s="106">
+      <c r="M2" s="117">
         <v>440</v>
       </c>
-      <c r="N2" s="106">
+      <c r="N2" s="117">
         <v>14.7</v>
       </c>
-      <c r="O2" s="106">
+      <c r="O2" s="117">
         <v>0.84</v>
       </c>
-      <c r="P2" s="106">
-        <v>1450</v>
-      </c>
-      <c r="Q2" s="105">
+      <c r="P2" s="117">
+        <v>1750</v>
+      </c>
+      <c r="Q2" s="135">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>206.39999999999998</v>
+      </c>
+      <c r="R2" s="116" t="s">
+        <v>311</v>
+      </c>
+      <c r="S2" s="116">
         <v>43</v>
       </c>
-      <c r="R2" s="105" t="s">
+      <c r="T2" s="116" t="s">
         <v>386</v>
       </c>
-      <c r="S2" s="105" t="s">
+      <c r="U2" s="116" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="109" t="s">
+      <c r="V2" s="118" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
         <v>214</v>
       </c>
       <c r="B3" s="59" t="s">
@@ -4487,7 +4891,7 @@
       <c r="K3" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L3" s="110">
+      <c r="L3" s="124">
         <v>8.6</v>
       </c>
       <c r="M3" s="59">
@@ -4502,77 +4906,96 @@
       <c r="P3" s="59">
         <v>1750</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="124">
+        <v>206.4</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="S3" s="58">
         <v>43</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="T3" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="S3" s="58" t="s">
+      <c r="U3" s="58" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="107" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="109" t="s">
+      <c r="V3" s="70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="119" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="120" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="120" t="s">
         <v>515</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="120" t="s">
         <v>305</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="120" t="s">
         <v>381</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="120" t="s">
         <v>398</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="120" t="s">
         <v>301</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="120" t="s">
         <v>383</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="120" t="s">
         <v>385</v>
       </c>
-      <c r="L4" s="110">
+      <c r="L4" s="124">
         <v>8.6</v>
       </c>
-      <c r="M4" s="108">
+      <c r="M4" s="120">
         <v>440</v>
       </c>
-      <c r="N4" s="108">
+      <c r="N4" s="120">
         <v>14.7</v>
       </c>
-      <c r="O4" s="108">
+      <c r="O4" s="120">
         <v>0.84</v>
       </c>
-      <c r="P4" s="108">
+      <c r="P4" s="120">
         <v>1750</v>
       </c>
-      <c r="Q4" s="107">
+      <c r="Q4" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>206.39999999999998</v>
+      </c>
+      <c r="R4" s="119" t="s">
+        <v>311</v>
+      </c>
+      <c r="S4" s="119">
         <v>43</v>
       </c>
-      <c r="R4" s="107" t="s">
+      <c r="T4" s="119" t="s">
         <v>386</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="U4" s="119" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="109" t="s">
+      <c r="V4" s="121" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="123" t="s">
         <v>228</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -4605,7 +5028,7 @@
       <c r="K5" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L5" s="110">
+      <c r="L5" s="124">
         <v>8.6</v>
       </c>
       <c r="M5" s="59">
@@ -4620,77 +5043,97 @@
       <c r="P5" s="59">
         <v>1750</v>
       </c>
-      <c r="Q5" s="58">
+      <c r="Q5" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>206.39999999999998</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="S5" s="58">
         <v>43</v>
       </c>
-      <c r="R5" s="58" t="s">
+      <c r="T5" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="S5" s="58" t="s">
+      <c r="U5" s="58" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="90" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="126" t="s">
+      <c r="V5" s="70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="98" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="144" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="100" t="s">
         <v>515</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="100" t="s">
         <v>305</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="100" t="s">
         <v>381</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="100" t="s">
         <v>301</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="100" t="s">
         <v>383</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="100" t="s">
         <v>323</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="100" t="s">
         <v>385</v>
       </c>
-      <c r="L6" s="118">
+      <c r="L6" s="136">
         <v>8.6</v>
       </c>
-      <c r="M6" s="92">
+      <c r="M6" s="100">
         <v>440</v>
       </c>
-      <c r="N6" s="92">
+      <c r="N6" s="100">
         <v>14.7</v>
       </c>
-      <c r="O6" s="92">
+      <c r="O6" s="100">
         <v>0.84</v>
       </c>
-      <c r="P6" s="92">
+      <c r="P6" s="100">
         <v>1750</v>
       </c>
-      <c r="Q6" s="91">
+      <c r="Q6" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>206.39999999999998</v>
+      </c>
+      <c r="R6" s="99" t="s">
+        <v>311</v>
+      </c>
+      <c r="S6" s="99">
         <v>43</v>
       </c>
-      <c r="R6" s="91" t="s">
+      <c r="T6" s="99" t="s">
         <v>386</v>
       </c>
-      <c r="S6" s="91" t="s">
+      <c r="U6" s="99" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="122" t="s">
+      <c r="V6" s="101" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="140" t="s">
         <v>141</v>
       </c>
       <c r="B7" s="65" t="s">
@@ -4718,19 +5161,19 @@
         <v>302</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>323</v>
+        <v>604</v>
       </c>
       <c r="K7" s="65" t="s">
         <v>385</v>
       </c>
       <c r="L7" s="50">
-        <v>37</v>
+        <v>42.5</v>
       </c>
       <c r="M7" s="65">
         <v>440</v>
       </c>
       <c r="N7" s="65">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O7" s="65">
         <v>0.86</v>
@@ -4738,84 +5181,104 @@
       <c r="P7" s="65">
         <v>1775</v>
       </c>
-      <c r="Q7" s="66">
+      <c r="Q7" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>1020</v>
+      </c>
+      <c r="R7" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="S7" s="66">
         <v>265</v>
       </c>
-      <c r="R7" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="S7" s="66" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="90" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="109" t="s">
+      <c r="T7" s="162" t="s">
+        <v>610</v>
+      </c>
+      <c r="U7" s="162" t="s">
+        <v>610</v>
+      </c>
+      <c r="V7" s="128" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="98" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="98" t="s">
         <v>483</v>
       </c>
-      <c r="C8" s="111" t="s">
-        <v>517</v>
-      </c>
-      <c r="D8" s="111" t="s">
+      <c r="C8" s="125" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="111" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" s="111" t="s">
-        <v>334</v>
-      </c>
-      <c r="G8" s="111" t="s">
-        <v>432</v>
-      </c>
-      <c r="H8" s="111" t="s">
+      <c r="E8" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="125" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" s="125" t="s">
+        <v>622</v>
+      </c>
+      <c r="H8" s="125" t="s">
         <v>301</v>
       </c>
-      <c r="I8" s="111" t="s">
-        <v>336</v>
-      </c>
-      <c r="J8" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="K8" s="111" t="s">
+      <c r="I8" s="125" t="s">
+        <v>472</v>
+      </c>
+      <c r="J8" s="125" t="s">
+        <v>604</v>
+      </c>
+      <c r="K8" s="125" t="s">
         <v>385</v>
       </c>
-      <c r="L8" s="110">
-        <v>17.3</v>
-      </c>
-      <c r="M8" s="111">
+      <c r="L8" s="124">
+        <v>18.5</v>
+      </c>
+      <c r="M8" s="125">
         <v>440</v>
       </c>
-      <c r="N8" s="111">
-        <v>28</v>
-      </c>
-      <c r="O8" s="111">
-        <v>0.86</v>
-      </c>
-      <c r="P8" s="111">
-        <v>3530</v>
-      </c>
-      <c r="Q8" s="90">
-        <v>68</v>
-      </c>
-      <c r="R8" s="90" t="s">
-        <v>339</v>
-      </c>
-      <c r="S8" s="90" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="109" t="s">
+      <c r="N8" s="125">
+        <v>29.4</v>
+      </c>
+      <c r="O8" s="125">
+        <v>0.9</v>
+      </c>
+      <c r="P8" s="125">
+        <v>3547</v>
+      </c>
+      <c r="Q8" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R8" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="S8" s="98">
+        <v>183</v>
+      </c>
+      <c r="T8" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="U8" s="161" t="s">
+        <v>322</v>
+      </c>
+      <c r="V8" s="126">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="123" t="s">
         <v>145</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>485</v>
+        <v>609</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>518</v>
+        <v>608</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>20</v>
@@ -4836,13 +5299,13 @@
         <v>336</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>323</v>
+        <v>607</v>
       </c>
       <c r="K9" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L9" s="109">
-        <v>18.600000000000001</v>
+      <c r="L9" s="123">
+        <v>17.3</v>
       </c>
       <c r="M9" s="59">
         <v>440</v>
@@ -4856,83 +5319,103 @@
       <c r="P9" s="59">
         <v>3530</v>
       </c>
-      <c r="Q9" s="58">
+      <c r="Q9" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>415.20000000000005</v>
+      </c>
+      <c r="R9" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="S9" s="58">
         <v>68</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="T9" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="U9" s="58" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="90" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="123" t="s">
+      <c r="V9" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="98" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>519</v>
-      </c>
-      <c r="D10" s="96" t="s">
+      <c r="B10" s="98" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="96" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>343</v>
-      </c>
-      <c r="G10" s="96" t="s">
-        <v>352</v>
-      </c>
-      <c r="H10" s="96" t="s">
+      <c r="E10" s="125" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="125" t="s">
+        <v>623</v>
+      </c>
+      <c r="H10" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="I10" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="J10" s="96" t="s">
-        <v>323</v>
-      </c>
-      <c r="K10" s="96" t="s">
+      <c r="I10" s="125" t="s">
+        <v>472</v>
+      </c>
+      <c r="J10" s="104" t="s">
+        <v>607</v>
+      </c>
+      <c r="K10" s="104" t="s">
         <v>385</v>
       </c>
-      <c r="L10" s="49">
-        <v>21.3</v>
-      </c>
-      <c r="M10" s="96">
+      <c r="L10" s="124">
+        <v>18.5</v>
+      </c>
+      <c r="M10" s="104">
         <v>440</v>
       </c>
-      <c r="N10" s="96">
-        <v>34.5</v>
-      </c>
-      <c r="O10" s="96">
-        <v>0.87</v>
-      </c>
-      <c r="P10" s="96">
-        <v>3530</v>
-      </c>
-      <c r="Q10" s="95">
-        <v>77</v>
-      </c>
-      <c r="R10" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="S10" s="95" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="129" t="s">
+      <c r="N10" s="125">
+        <v>29.4</v>
+      </c>
+      <c r="O10" s="125">
+        <v>0.9</v>
+      </c>
+      <c r="P10" s="125">
+        <v>3547</v>
+      </c>
+      <c r="Q10" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R10" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="S10" s="98">
+        <v>183</v>
+      </c>
+      <c r="T10" s="161" t="s">
+        <v>321</v>
+      </c>
+      <c r="U10" s="161" t="s">
+        <v>322</v>
+      </c>
+      <c r="V10" s="126">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="147" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="106" t="s">
         <v>481</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="94" t="s">
         <v>515</v>
       </c>
       <c r="D11" s="67" t="s">
@@ -4959,7 +5442,7 @@
       <c r="K11" s="67" t="s">
         <v>385</v>
       </c>
-      <c r="L11" s="117">
+      <c r="L11" s="135">
         <v>8.6</v>
       </c>
       <c r="M11" s="67">
@@ -4974,77 +5457,97 @@
       <c r="P11" s="67">
         <v>1750</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>206.39999999999998</v>
+      </c>
+      <c r="R11" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="S11" s="68">
         <v>43</v>
       </c>
-      <c r="R11" s="68" t="s">
+      <c r="T11" s="68" t="s">
         <v>387</v>
       </c>
-      <c r="S11" s="68" t="s">
+      <c r="U11" s="68" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="102" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="125" t="s">
+      <c r="V11" s="69" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="112" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="112" t="s">
         <v>481</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="113" t="s">
         <v>515</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="113" t="s">
         <v>381</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="113" t="s">
         <v>389</v>
       </c>
-      <c r="H12" s="103" t="s">
+      <c r="H12" s="113" t="s">
         <v>390</v>
       </c>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="113" t="s">
         <v>383</v>
       </c>
-      <c r="J12" s="103" t="s">
+      <c r="J12" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="K12" s="103" t="s">
+      <c r="K12" s="113" t="s">
         <v>385</v>
       </c>
-      <c r="L12" s="110">
+      <c r="L12" s="124">
         <v>8.6</v>
       </c>
-      <c r="M12" s="103">
+      <c r="M12" s="113">
         <v>440</v>
       </c>
-      <c r="N12" s="103">
+      <c r="N12" s="113">
         <v>14.7</v>
       </c>
-      <c r="O12" s="103">
+      <c r="O12" s="113">
         <v>0.84</v>
       </c>
-      <c r="P12" s="103">
+      <c r="P12" s="113">
         <v>1750</v>
       </c>
-      <c r="Q12" s="102">
+      <c r="Q12" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>206.39999999999998</v>
+      </c>
+      <c r="R12" s="112" t="s">
+        <v>311</v>
+      </c>
+      <c r="S12" s="112">
         <v>43</v>
       </c>
-      <c r="R12" s="102" t="s">
+      <c r="T12" s="112" t="s">
         <v>387</v>
       </c>
-      <c r="S12" s="102" t="s">
+      <c r="U12" s="112" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="125" t="s">
+      <c r="V12" s="115" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="143" t="s">
         <v>244</v>
       </c>
       <c r="B13" s="58" t="s">
@@ -5077,7 +5580,7 @@
       <c r="K13" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="L13" s="110">
+      <c r="L13" s="124">
         <v>7.5</v>
       </c>
       <c r="M13" s="59">
@@ -5092,202 +5595,242 @@
       <c r="P13" s="59">
         <v>1730</v>
       </c>
-      <c r="Q13" s="58">
+      <c r="Q13" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>180</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S13" s="58">
         <v>76</v>
       </c>
-      <c r="R13" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S13" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="102" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="125" t="s">
+      <c r="T13" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U13" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V13" s="70">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="112" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="143" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="112" t="s">
         <v>481</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="113" t="s">
         <v>515</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="113" t="s">
         <v>381</v>
       </c>
-      <c r="G14" s="103" t="s">
-        <v>324</v>
-      </c>
-      <c r="H14" s="103" t="s">
+      <c r="G14" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="113" t="s">
         <v>383</v>
       </c>
-      <c r="J14" s="103" t="s">
+      <c r="J14" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="K14" s="103" t="s">
+      <c r="K14" s="113" t="s">
         <v>385</v>
       </c>
-      <c r="L14" s="110">
+      <c r="L14" s="124">
         <v>8.6</v>
       </c>
-      <c r="M14" s="103">
+      <c r="M14" s="113">
         <v>440</v>
       </c>
-      <c r="N14" s="103">
+      <c r="N14" s="113">
         <v>14.7</v>
       </c>
-      <c r="O14" s="103">
+      <c r="O14" s="113">
         <v>0.84</v>
       </c>
-      <c r="P14" s="103">
+      <c r="P14" s="113">
         <v>1750</v>
       </c>
-      <c r="Q14" s="102">
+      <c r="Q14" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>206.39999999999998</v>
+      </c>
+      <c r="R14" s="112" t="s">
+        <v>311</v>
+      </c>
+      <c r="S14" s="112">
         <v>43</v>
       </c>
-      <c r="R14" s="102" t="s">
+      <c r="T14" s="112" t="s">
         <v>386</v>
       </c>
-      <c r="S14" s="102" t="s">
+      <c r="U14" s="112" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="130" t="s">
+      <c r="V14" s="115" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="148" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="72" t="s">
         <v>481</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="71" t="s">
         <v>515</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="71" t="s">
         <v>305</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="71" t="s">
         <v>401</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="71" t="s">
         <v>402</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="71" t="s">
         <v>301</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="71" t="s">
         <v>383</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="L15" s="118">
+      <c r="L15" s="136">
         <v>8.6</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="71">
         <v>440</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="71">
         <v>14.7</v>
       </c>
-      <c r="O15" s="69">
+      <c r="O15" s="71">
         <v>0.84</v>
       </c>
-      <c r="P15" s="69">
+      <c r="P15" s="71">
         <v>1750</v>
       </c>
-      <c r="Q15" s="70">
+      <c r="Q15" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>206.39999999999998</v>
+      </c>
+      <c r="R15" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="S15" s="72">
         <v>43</v>
       </c>
-      <c r="R15" s="70" t="s">
+      <c r="T15" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="S15" s="70" t="s">
+      <c r="U15" s="72" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="76" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="124" t="s">
+      <c r="V15" s="73" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="81" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="142" t="s">
         <v>327</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="129" t="s">
         <v>482</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="129" t="s">
         <v>516</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="129" t="s">
         <v>299</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="129" t="s">
         <v>333</v>
       </c>
-      <c r="H16" s="112" t="s">
+      <c r="H16" s="129" t="s">
         <v>301</v>
       </c>
-      <c r="I16" s="112" t="s">
+      <c r="I16" s="129" t="s">
         <v>302</v>
       </c>
-      <c r="J16" s="112" t="s">
-        <v>323</v>
-      </c>
-      <c r="K16" s="114" t="s">
+      <c r="J16" s="129" t="s">
+        <v>604</v>
+      </c>
+      <c r="K16" s="131" t="s">
         <v>385</v>
       </c>
       <c r="L16" s="50">
         <v>42.5</v>
       </c>
-      <c r="M16" s="112">
+      <c r="M16" s="129">
         <v>440</v>
       </c>
-      <c r="N16" s="112">
+      <c r="N16" s="129">
         <v>67</v>
       </c>
-      <c r="O16" s="115">
+      <c r="O16" s="132">
         <v>0.86</v>
       </c>
-      <c r="P16" s="112">
+      <c r="P16" s="129">
         <v>1775</v>
       </c>
-      <c r="Q16" s="115">
+      <c r="Q16" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>1020</v>
+      </c>
+      <c r="R16" s="132" t="s">
+        <v>311</v>
+      </c>
+      <c r="S16" s="132">
         <v>265</v>
       </c>
-      <c r="R16" s="115" t="s">
-        <v>330</v>
-      </c>
-      <c r="S16" s="115" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="125" t="s">
+      <c r="T16" s="163" t="s">
+        <v>610</v>
+      </c>
+      <c r="U16" s="163" t="s">
+        <v>610</v>
+      </c>
+      <c r="V16" s="133" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="143" t="s">
         <v>258</v>
       </c>
       <c r="B17" s="59" t="s">
         <v>483</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>517</v>
+        <v>606</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>35</v>
@@ -5308,12 +5851,12 @@
         <v>336</v>
       </c>
       <c r="J17" s="59" t="s">
-        <v>323</v>
+        <v>604</v>
       </c>
       <c r="K17" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L17" s="110">
+      <c r="L17" s="124">
         <v>18.5</v>
       </c>
       <c r="M17" s="59">
@@ -5328,84 +5871,104 @@
       <c r="P17" s="59">
         <v>3544</v>
       </c>
-      <c r="Q17" s="58">
+      <c r="Q17" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R17" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S17" s="58">
         <v>170</v>
       </c>
-      <c r="R17" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="S17" s="58" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="76" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="125" t="s">
+      <c r="T17" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="U17" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="V17" s="70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="81" customFormat="1" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="143" t="s">
         <v>260</v>
       </c>
-      <c r="B18" s="77" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>521</v>
-      </c>
-      <c r="D18" s="93" t="s">
+      <c r="B18" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>517</v>
+      </c>
+      <c r="D18" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="82" t="s">
         <v>305</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="G18" s="77" t="s">
-        <v>324</v>
-      </c>
-      <c r="H18" s="77" t="s">
+      <c r="G18" s="82" t="s">
+        <v>324</v>
+      </c>
+      <c r="H18" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="82" t="s">
         <v>344</v>
       </c>
-      <c r="J18" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="K18" s="77" t="s">
+      <c r="J18" s="82" t="s">
+        <v>607</v>
+      </c>
+      <c r="K18" s="82" t="s">
         <v>385</v>
       </c>
-      <c r="L18" s="110">
+      <c r="L18" s="124">
         <v>21.3</v>
       </c>
-      <c r="M18" s="77">
+      <c r="M18" s="82">
         <v>440</v>
       </c>
-      <c r="N18" s="77">
+      <c r="N18" s="82">
         <v>34.5</v>
       </c>
-      <c r="O18" s="77">
+      <c r="O18" s="82">
         <v>0.87</v>
       </c>
-      <c r="P18" s="77">
+      <c r="P18" s="82">
         <v>3530</v>
       </c>
-      <c r="Q18" s="76">
+      <c r="Q18" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>511.20000000000005</v>
+      </c>
+      <c r="R18" s="81" t="s">
+        <v>311</v>
+      </c>
+      <c r="S18" s="81">
         <v>77</v>
       </c>
-      <c r="R18" s="76" t="s">
-        <v>339</v>
-      </c>
-      <c r="S18" s="76" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="125" t="s">
+      <c r="T18" s="81" t="s">
+        <v>605</v>
+      </c>
+      <c r="U18" s="81" t="s">
+        <v>605</v>
+      </c>
+      <c r="V18" s="105" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="143" t="s">
         <v>262</v>
       </c>
       <c r="B19" s="59" t="s">
         <v>483</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>517</v>
+        <v>606</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>35</v>
@@ -5423,15 +5986,15 @@
         <v>325</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>336</v>
+        <v>472</v>
       </c>
       <c r="J19" s="59" t="s">
-        <v>323</v>
+        <v>607</v>
       </c>
       <c r="K19" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L19" s="110">
+      <c r="L19" s="124">
         <v>18.5</v>
       </c>
       <c r="M19" s="59">
@@ -5446,84 +6009,104 @@
       <c r="P19" s="59">
         <v>3547</v>
       </c>
-      <c r="Q19" s="58">
+      <c r="Q19" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R19" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S19" s="58">
         <v>183</v>
       </c>
-      <c r="R19" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="S19" s="58" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="125" t="s">
+      <c r="T19" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="U19" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="V19" s="70">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="82" t="s">
         <v>484</v>
       </c>
-      <c r="C20" s="77" t="s">
-        <v>522</v>
-      </c>
-      <c r="D20" s="93" t="s">
+      <c r="C20" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="D20" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="82" t="s">
         <v>305</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="82" t="s">
         <v>379</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="82" t="s">
         <v>380</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="82" t="s">
         <v>365</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="K20" s="77" t="s">
+      <c r="K20" s="82" t="s">
         <v>385</v>
       </c>
-      <c r="L20" s="110">
+      <c r="L20" s="124">
         <v>52</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="82">
         <v>440</v>
       </c>
-      <c r="N20" s="77">
+      <c r="N20" s="82">
         <v>81</v>
       </c>
-      <c r="O20" s="77">
+      <c r="O20" s="82">
         <v>0.87</v>
       </c>
-      <c r="P20" s="77">
+      <c r="P20" s="82">
         <v>1755</v>
       </c>
-      <c r="Q20" s="76">
+      <c r="Q20" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>1248</v>
+      </c>
+      <c r="R20" s="81" t="s">
+        <v>311</v>
+      </c>
+      <c r="S20" s="81">
         <v>300</v>
       </c>
-      <c r="R20" s="76" t="s">
+      <c r="T20" s="81" t="s">
         <v>444</v>
       </c>
-      <c r="S20" s="76" t="s">
+      <c r="U20" s="81" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="125" t="s">
+      <c r="V20" s="105" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="143" t="s">
         <v>266</v>
       </c>
       <c r="B21" s="59" t="s">
         <v>484</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D21" s="60" t="s">
         <v>35</v>
@@ -5549,7 +6132,7 @@
       <c r="K21" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L21" s="110">
+      <c r="L21" s="124">
         <v>52</v>
       </c>
       <c r="M21" s="59">
@@ -5564,143 +6147,173 @@
       <c r="P21" s="59">
         <v>1775</v>
       </c>
-      <c r="Q21" s="58">
+      <c r="Q21" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>1248</v>
+      </c>
+      <c r="R21" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="S21" s="58">
         <v>300</v>
       </c>
-      <c r="R21" s="58" t="s">
+      <c r="T21" s="58" t="s">
         <v>444</v>
       </c>
-      <c r="S21" s="58" t="s">
+      <c r="U21" s="58" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="125" t="s">
+      <c r="V21" s="70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="143" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="82" t="s">
         <v>484</v>
       </c>
-      <c r="C22" s="77" t="s">
-        <v>522</v>
-      </c>
-      <c r="D22" s="93" t="s">
+      <c r="C22" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="D22" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="77" t="s">
-        <v>305</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>376</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>378</v>
-      </c>
-      <c r="H22" s="77" t="s">
+      <c r="E22" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="82" t="s">
+        <v>624</v>
+      </c>
+      <c r="G22" s="82" t="s">
+        <v>625</v>
+      </c>
+      <c r="H22" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="I22" s="77" t="s">
+      <c r="I22" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="J22" s="82" t="s">
+        <v>323</v>
+      </c>
+      <c r="K22" s="82" t="s">
+        <v>385</v>
+      </c>
+      <c r="L22" s="124">
+        <v>55</v>
+      </c>
+      <c r="M22" s="82">
+        <v>440</v>
+      </c>
+      <c r="N22" s="82">
+        <v>87.2</v>
+      </c>
+      <c r="O22" s="82">
+        <v>0.87</v>
+      </c>
+      <c r="P22" s="82">
+        <v>1775</v>
+      </c>
+      <c r="Q22" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>1320</v>
+      </c>
+      <c r="R22" s="81" t="s">
+        <v>311</v>
+      </c>
+      <c r="S22" s="81">
+        <v>370</v>
+      </c>
+      <c r="T22" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="U22" s="81" t="s">
+        <v>627</v>
+      </c>
+      <c r="V22" s="105">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="144" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="I23" s="71" t="s">
         <v>365</v>
       </c>
-      <c r="J22" s="77" t="s">
+      <c r="J23" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="K22" s="77" t="s">
-        <v>385</v>
-      </c>
-      <c r="L22" s="110">
-        <v>52</v>
-      </c>
-      <c r="M22" s="77">
+      <c r="K23" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="L23" s="136">
+        <v>56</v>
+      </c>
+      <c r="M23" s="71">
         <v>440</v>
       </c>
-      <c r="N22" s="77">
-        <v>81</v>
-      </c>
-      <c r="O22" s="77">
-        <v>0.87</v>
-      </c>
-      <c r="P22" s="77">
-        <v>1775</v>
-      </c>
-      <c r="Q22" s="76">
-        <v>300</v>
-      </c>
-      <c r="R22" s="76" t="s">
-        <v>444</v>
-      </c>
-      <c r="S22" s="76" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="126" t="s">
-        <v>270</v>
-      </c>
-      <c r="B23" s="88" t="s">
-        <v>484</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>522</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="G23" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="H23" s="69" t="s">
-        <v>324</v>
-      </c>
-      <c r="I23" s="69" t="s">
+      <c r="N23" s="71">
+        <v>88.1</v>
+      </c>
+      <c r="O23" s="71">
+        <v>0.86</v>
+      </c>
+      <c r="P23" s="71">
+        <v>1785</v>
+      </c>
+      <c r="Q23" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>1344</v>
+      </c>
+      <c r="R23" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="S23" s="72">
         <v>365</v>
       </c>
-      <c r="J23" s="69" t="s">
-        <v>323</v>
-      </c>
-      <c r="K23" s="69" t="s">
-        <v>324</v>
-      </c>
-      <c r="L23" s="118">
-        <v>56</v>
-      </c>
-      <c r="M23" s="69">
-        <v>440</v>
-      </c>
-      <c r="N23" s="69">
-        <v>88.1</v>
-      </c>
-      <c r="O23" s="69">
-        <v>0.86</v>
-      </c>
-      <c r="P23" s="69">
-        <v>1785</v>
-      </c>
-      <c r="Q23" s="70">
-        <v>365</v>
-      </c>
-      <c r="R23" s="70" t="s">
+      <c r="T23" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="S23" s="70" t="s">
+      <c r="U23" s="72" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="117" t="s">
+      <c r="V23" s="73">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="94" t="s">
         <v>479</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D24" s="67" t="s">
         <v>44</v>
@@ -5726,13 +6339,13 @@
       <c r="K24" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="L24" s="117">
+      <c r="L24" s="135">
         <v>15</v>
       </c>
-      <c r="M24" s="144">
+      <c r="M24" s="67">
         <v>220</v>
       </c>
-      <c r="N24" s="144">
+      <c r="N24" s="67">
         <v>52.3</v>
       </c>
       <c r="O24" s="67">
@@ -5741,25 +6354,35 @@
       <c r="P24" s="67">
         <v>1776</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="R24" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="S24" s="68">
         <v>187</v>
       </c>
-      <c r="R24" s="68" t="s">
+      <c r="T24" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="S24" s="68" t="s">
+      <c r="U24" s="68" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="127" t="s">
+      <c r="V24" s="69">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="145" t="s">
         <v>280</v>
       </c>
       <c r="B25" s="59" t="s">
         <v>479</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>44</v>
@@ -5785,13 +6408,13 @@
       <c r="K25" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L25" s="110">
+      <c r="L25" s="124">
         <v>15</v>
       </c>
-      <c r="M25" s="141">
+      <c r="M25" s="59">
         <v>220</v>
       </c>
-      <c r="N25" s="141">
+      <c r="N25" s="59">
         <v>52.3</v>
       </c>
       <c r="O25" s="59">
@@ -5800,23 +6423,35 @@
       <c r="P25" s="59">
         <v>1776</v>
       </c>
-      <c r="Q25" s="58">
+      <c r="Q25" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="R25" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S25" s="58">
         <v>187</v>
       </c>
-      <c r="R25" s="58" t="s">
+      <c r="T25" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="S25" s="58" t="s">
+      <c r="U25" s="58" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="127" t="s">
+      <c r="V25" s="70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="145" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="59" t="s">
+        <v>324</v>
+      </c>
       <c r="C26" s="60" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D26" s="59" t="s">
         <v>44</v>
@@ -5842,13 +6477,13 @@
       <c r="K26" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L26" s="110">
+      <c r="L26" s="124">
         <v>22</v>
       </c>
-      <c r="M26" s="141">
+      <c r="M26" s="59">
         <v>220</v>
       </c>
-      <c r="N26" s="141">
+      <c r="N26" s="59">
         <v>70</v>
       </c>
       <c r="O26" s="59">
@@ -5857,19 +6492,29 @@
       <c r="P26" s="59">
         <v>3540</v>
       </c>
-      <c r="Q26" s="58">
+      <c r="Q26" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>528</v>
+      </c>
+      <c r="R26" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S26" s="58">
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="127" t="s">
+      <c r="V26" s="70">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="145" t="s">
         <v>284</v>
       </c>
       <c r="B27" s="59" t="s">
         <v>324</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D27" s="59" t="s">
         <v>44</v>
@@ -5895,14 +6540,14 @@
       <c r="K27" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L27" s="110">
+      <c r="L27" s="124">
         <v>11</v>
       </c>
-      <c r="M27" s="141">
+      <c r="M27" s="59">
         <v>220</v>
       </c>
-      <c r="N27" s="141">
-        <v>40.049999999999997</v>
+      <c r="N27" s="59">
+        <v>40</v>
       </c>
       <c r="O27" s="59">
         <v>0.79</v>
@@ -5910,25 +6555,35 @@
       <c r="P27" s="59">
         <v>1764</v>
       </c>
-      <c r="Q27" s="58">
+      <c r="Q27" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>264</v>
+      </c>
+      <c r="R27" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S27" s="58">
         <v>81</v>
       </c>
-      <c r="R27" s="58" t="s">
+      <c r="T27" s="58" t="s">
         <v>429</v>
       </c>
-      <c r="S27" s="58" t="s">
+      <c r="U27" s="58" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="127" t="s">
+      <c r="V27" s="70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="145" t="s">
         <v>286</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>44</v>
@@ -5954,13 +6609,13 @@
       <c r="K28" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L28" s="110">
+      <c r="L28" s="124">
         <v>18.5</v>
       </c>
-      <c r="M28" s="141">
+      <c r="M28" s="59">
         <v>220</v>
       </c>
-      <c r="N28" s="141">
+      <c r="N28" s="59">
         <v>65.7</v>
       </c>
       <c r="O28" s="59">
@@ -5969,143 +6624,173 @@
       <c r="P28" s="59">
         <v>1777</v>
       </c>
-      <c r="Q28" s="58">
+      <c r="Q28" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R28" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S28" s="58">
         <v>180</v>
       </c>
-      <c r="R28" s="58" t="s">
+      <c r="T28" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="S28" s="58" t="s">
+      <c r="U28" s="58" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="118" t="s">
+      <c r="V28" s="70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="136" t="s">
         <v>288</v>
       </c>
-      <c r="B29" s="88" t="s">
-        <v>524</v>
+      <c r="B29" s="95" t="s">
+        <v>478</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>526</v>
-      </c>
-      <c r="D29" s="69" t="s">
+        <v>521</v>
+      </c>
+      <c r="D29" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="H29" s="69" t="s">
+      <c r="H29" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="I29" s="69" t="s">
+      <c r="I29" s="71" t="s">
         <v>472</v>
       </c>
-      <c r="J29" s="69" t="s">
+      <c r="J29" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="K29" s="69" t="s">
+      <c r="K29" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="L29" s="118">
+      <c r="L29" s="136">
         <v>18.5</v>
       </c>
-      <c r="M29" s="141">
+      <c r="M29" s="71">
         <v>220</v>
       </c>
-      <c r="N29" s="141">
+      <c r="N29" s="71">
         <v>65.7</v>
       </c>
-      <c r="O29" s="69">
+      <c r="O29" s="71">
         <v>0.79</v>
       </c>
-      <c r="P29" s="69">
+      <c r="P29" s="71">
         <v>1777</v>
       </c>
-      <c r="Q29" s="70">
+      <c r="Q29" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R29" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="S29" s="72">
         <v>180</v>
       </c>
-      <c r="R29" s="70" t="s">
+      <c r="T29" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="S29" s="70" t="s">
+      <c r="U29" s="72" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" s="73" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="117" t="s">
+      <c r="V29" s="73">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="77" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="108" t="s">
         <v>479</v>
       </c>
-      <c r="C30" s="71" t="s">
-        <v>523</v>
-      </c>
-      <c r="D30" s="71" t="s">
+      <c r="C30" s="74" t="s">
+        <v>519</v>
+      </c>
+      <c r="D30" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="75" t="s">
         <v>342</v>
       </c>
-      <c r="H30" s="71" t="s">
+      <c r="H30" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="I30" s="99" t="s">
+      <c r="I30" s="108" t="s">
         <v>472</v>
       </c>
-      <c r="J30" s="71" t="s">
+      <c r="J30" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="K30" s="71" t="s">
+      <c r="K30" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="L30" s="117">
+      <c r="L30" s="135">
         <v>15</v>
       </c>
-      <c r="M30" s="144">
+      <c r="M30" s="74">
         <v>220</v>
       </c>
-      <c r="N30" s="144">
+      <c r="N30" s="74">
         <v>52.3</v>
       </c>
-      <c r="O30" s="71">
+      <c r="O30" s="74">
         <v>0.81</v>
       </c>
-      <c r="P30" s="71">
+      <c r="P30" s="74">
         <v>1776</v>
       </c>
-      <c r="Q30" s="72">
+      <c r="Q30" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="R30" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="S30" s="75">
         <v>180</v>
       </c>
-      <c r="R30" s="72" t="s">
+      <c r="T30" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="S30" s="72" t="s">
+      <c r="U30" s="75" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="127" t="s">
+      <c r="V30" s="76">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="145" t="s">
         <v>155</v>
       </c>
       <c r="B31" s="59" t="s">
         <v>479</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D31" s="59" t="s">
         <v>50</v>
@@ -6119,7 +6804,7 @@
       <c r="G31" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="H31" s="133" t="s">
+      <c r="H31" s="151" t="s">
         <v>418</v>
       </c>
       <c r="I31" s="59" t="s">
@@ -6131,13 +6816,13 @@
       <c r="K31" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L31" s="110">
+      <c r="L31" s="124">
         <v>15</v>
       </c>
-      <c r="M31" s="141">
+      <c r="M31" s="59">
         <v>220</v>
       </c>
-      <c r="N31" s="141">
+      <c r="N31" s="59">
         <v>52.3</v>
       </c>
       <c r="O31" s="59">
@@ -6146,84 +6831,104 @@
       <c r="P31" s="59">
         <v>1776</v>
       </c>
-      <c r="Q31" s="58">
+      <c r="Q31" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="R31" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S31" s="58">
         <v>180</v>
       </c>
-      <c r="R31" s="58" t="s">
+      <c r="T31" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="S31" s="58" t="s">
+      <c r="U31" s="58" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" s="73" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="127" t="s">
+      <c r="V31" s="70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="77" customFormat="1" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="145" t="s">
         <v>468</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>479</v>
-      </c>
-      <c r="C32" s="98" t="s">
-        <v>523</v>
-      </c>
-      <c r="D32" s="75" t="s">
+      <c r="B32" s="78" t="s">
+        <v>633</v>
+      </c>
+      <c r="C32" s="107" t="s">
+        <v>629</v>
+      </c>
+      <c r="D32" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="74" t="s">
-        <v>300</v>
-      </c>
-      <c r="F32" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="G32" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="H32" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="I32" s="134" t="s">
-        <v>472</v>
-      </c>
-      <c r="J32" s="74" t="s">
+      <c r="E32" s="78" t="s">
+        <v>628</v>
+      </c>
+      <c r="F32" s="78">
+        <v>11938062</v>
+      </c>
+      <c r="G32" s="78">
+        <v>1099485490</v>
+      </c>
+      <c r="H32" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="I32" s="152" t="s">
+        <v>344</v>
+      </c>
+      <c r="J32" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="K32" s="74" t="s">
-        <v>326</v>
-      </c>
-      <c r="L32" s="110">
+      <c r="K32" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="L32" s="137">
         <v>22</v>
       </c>
-      <c r="M32" s="141">
+      <c r="M32" s="79">
         <v>220</v>
       </c>
-      <c r="N32" s="141">
-        <v>70</v>
-      </c>
-      <c r="O32" s="75">
-        <v>0.81</v>
-      </c>
-      <c r="P32" s="75">
+      <c r="N32" s="79">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="O32" s="79">
+        <v>0.87</v>
+      </c>
+      <c r="P32" s="79">
         <v>1176</v>
       </c>
-      <c r="Q32" s="73">
-        <v>180</v>
-      </c>
-      <c r="R32" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="S32" s="73" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="127" t="s">
+      <c r="Q32" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>528</v>
+      </c>
+      <c r="R32" s="77" t="s">
+        <v>630</v>
+      </c>
+      <c r="S32" s="77">
+        <v>132</v>
+      </c>
+      <c r="T32" s="77" t="s">
+        <v>631</v>
+      </c>
+      <c r="U32" s="77" t="s">
+        <v>632</v>
+      </c>
+      <c r="V32" s="80">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="145" t="s">
         <v>469</v>
       </c>
       <c r="B33" s="59" t="s">
         <v>324</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D33" s="59" t="s">
         <v>50</v>
@@ -6249,14 +6954,14 @@
       <c r="K33" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L33" s="110">
+      <c r="L33" s="124">
         <v>11</v>
       </c>
-      <c r="M33" s="141">
+      <c r="M33" s="59">
         <v>220</v>
       </c>
-      <c r="N33" s="141">
-        <v>40.049999999999997</v>
+      <c r="N33" s="59">
+        <v>40</v>
       </c>
       <c r="O33" s="59">
         <v>0.78</v>
@@ -6264,116 +6969,136 @@
       <c r="P33" s="59">
         <v>1764</v>
       </c>
-      <c r="Q33" s="58">
+      <c r="Q33" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>264</v>
+      </c>
+      <c r="R33" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S33" s="58">
         <v>81</v>
       </c>
-      <c r="R33" s="58" t="s">
+      <c r="T33" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="S33" s="58" t="s">
+      <c r="U33" s="58" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" s="73" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="127" t="s">
+      <c r="V33" s="70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="77" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="145" t="s">
         <v>470</v>
       </c>
-      <c r="B34" s="74" t="s">
-        <v>524</v>
-      </c>
-      <c r="C34" s="98" t="s">
-        <v>526</v>
-      </c>
-      <c r="D34" s="74" t="s">
+      <c r="B34" s="78" t="s">
+        <v>478</v>
+      </c>
+      <c r="C34" s="107" t="s">
+        <v>521</v>
+      </c>
+      <c r="D34" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="78" t="s">
         <v>340</v>
       </c>
-      <c r="G34" s="74" t="s">
+      <c r="G34" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="H34" s="74" t="s">
+      <c r="H34" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="I34" s="74" t="s">
+      <c r="I34" s="78" t="s">
         <v>472</v>
       </c>
-      <c r="J34" s="74" t="s">
+      <c r="J34" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="K34" s="74" t="s">
+      <c r="K34" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="L34" s="110">
+      <c r="L34" s="124">
         <v>18.5</v>
       </c>
-      <c r="M34" s="141">
+      <c r="M34" s="78">
         <v>220</v>
       </c>
-      <c r="N34" s="145">
+      <c r="N34" s="78">
         <v>65.7</v>
       </c>
-      <c r="O34" s="74">
+      <c r="O34" s="78">
         <v>0.79</v>
       </c>
-      <c r="P34" s="74">
+      <c r="P34" s="78">
         <v>1777</v>
       </c>
-      <c r="Q34" s="73">
+      <c r="Q34" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R34" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="S34" s="77">
         <v>180</v>
       </c>
-      <c r="R34" s="73" t="s">
+      <c r="T34" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="S34" s="73" t="s">
+      <c r="U34" s="77" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" s="63" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="118" t="s">
+      <c r="V34" s="80">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="63" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="136" t="s">
         <v>471</v>
       </c>
-      <c r="B35" s="88" t="s">
-        <v>524</v>
-      </c>
-      <c r="C35" s="116" t="s">
-        <v>526</v>
-      </c>
-      <c r="D35" s="69" t="s">
+      <c r="B35" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="C35" s="134" t="s">
+        <v>521</v>
+      </c>
+      <c r="D35" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="71" t="s">
         <v>325</v>
       </c>
       <c r="I35" s="59" t="s">
         <v>472</v>
       </c>
-      <c r="J35" s="69" t="s">
+      <c r="J35" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="K35" s="69" t="s">
+      <c r="K35" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="L35" s="118">
+      <c r="L35" s="136">
         <v>18.5</v>
       </c>
-      <c r="M35" s="141">
+      <c r="M35" s="71">
         <v>220</v>
       </c>
-      <c r="N35" s="145">
+      <c r="N35" s="71">
         <v>65.7</v>
       </c>
       <c r="O35" s="59">
@@ -6382,84 +7107,102 @@
       <c r="P35" s="59">
         <v>1777</v>
       </c>
-      <c r="Q35" s="58">
+      <c r="Q35" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R35" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S35" s="58">
         <v>180</v>
       </c>
-      <c r="R35" s="58" t="s">
+      <c r="T35" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="S35" s="58" t="s">
+      <c r="U35" s="58" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" s="85" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="120" t="s">
+      <c r="V35" s="70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="91" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="138" t="s">
         <v>413</v>
       </c>
-      <c r="B36" s="84" t="s">
-        <v>324</v>
-      </c>
-      <c r="C36" s="94" t="s">
-        <v>527</v>
-      </c>
-      <c r="D36" s="83" t="s">
+      <c r="B36" s="90" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" s="103" t="s">
+        <v>522</v>
+      </c>
+      <c r="D36" s="89" t="s">
         <v>456</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="G36" s="85" t="s">
+      <c r="G36" s="91" t="s">
         <v>417</v>
       </c>
-      <c r="H36" s="83" t="s">
+      <c r="H36" s="89" t="s">
         <v>418</v>
       </c>
-      <c r="I36" s="83" t="s">
+      <c r="I36" s="89" t="s">
         <v>419</v>
       </c>
-      <c r="J36" s="83" t="s">
+      <c r="J36" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="K36" s="83" t="s">
+      <c r="K36" s="89" t="s">
         <v>326</v>
       </c>
-      <c r="L36" s="120">
+      <c r="L36" s="138">
         <v>18</v>
       </c>
-      <c r="M36" s="83">
+      <c r="M36" s="89">
         <v>220</v>
       </c>
-      <c r="N36" s="83">
+      <c r="N36" s="89">
         <v>67</v>
       </c>
-      <c r="O36" s="83">
+      <c r="O36" s="89">
         <v>0.77</v>
       </c>
-      <c r="P36" s="83">
+      <c r="P36" s="89">
         <v>1170</v>
       </c>
-      <c r="Q36" s="85">
+      <c r="Q36" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>432</v>
+      </c>
+      <c r="R36" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="S36" s="91">
         <v>124</v>
       </c>
-      <c r="R36" s="85" t="s">
-        <v>324</v>
-      </c>
-      <c r="S36" s="85" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="110" t="s">
+      <c r="T36" s="91" t="s">
+        <v>324</v>
+      </c>
+      <c r="U36" s="91" t="s">
+        <v>324</v>
+      </c>
+      <c r="V36" s="92" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="59" t="s">
-        <v>324</v>
-      </c>
+      <c r="B37" s="59"/>
       <c r="C37" s="59" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D37" s="59" t="s">
         <v>453</v>
@@ -6477,7 +7220,7 @@
         <v>418</v>
       </c>
       <c r="I37" s="59" t="s">
-        <v>473</v>
+        <v>611</v>
       </c>
       <c r="J37" s="59" t="s">
         <v>323</v>
@@ -6485,14 +7228,14 @@
       <c r="K37" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L37" s="110">
+      <c r="L37" s="124">
         <v>30</v>
       </c>
       <c r="M37" s="59">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N37" s="59">
-        <v>49</v>
+        <v>99.5</v>
       </c>
       <c r="O37" s="59">
         <v>0.86</v>
@@ -6500,84 +7243,100 @@
       <c r="P37" s="59">
         <v>1760</v>
       </c>
-      <c r="Q37" s="58" t="s">
-        <v>324</v>
+      <c r="Q37" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
       </c>
       <c r="R37" s="58" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="S37" s="58" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="110" t="s">
+      <c r="T37" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U37" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V37" s="70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="77" t="s">
-        <v>478</v>
-      </c>
-      <c r="C38" s="77" t="s">
-        <v>531</v>
-      </c>
-      <c r="D38" s="77" t="s">
+      <c r="B38" s="82"/>
+      <c r="C38" s="82" t="s">
+        <v>526</v>
+      </c>
+      <c r="D38" s="82" t="s">
         <v>453</v>
       </c>
-      <c r="E38" s="77" t="s">
+      <c r="E38" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="F38" s="77" t="s">
+      <c r="F38" s="82" t="s">
         <v>395</v>
       </c>
-      <c r="G38" s="77" t="s">
+      <c r="G38" s="82" t="s">
         <v>356</v>
       </c>
-      <c r="H38" s="77" t="s">
+      <c r="H38" s="82" t="s">
         <v>325</v>
       </c>
-      <c r="I38" s="77" t="s">
+      <c r="I38" s="82" t="s">
         <v>472</v>
       </c>
-      <c r="J38" s="77" t="s">
+      <c r="J38" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="K38" s="77" t="s">
+      <c r="K38" s="82" t="s">
         <v>326</v>
       </c>
-      <c r="L38" s="110">
+      <c r="L38" s="124">
         <v>18.5</v>
       </c>
-      <c r="M38" s="77">
-        <v>440</v>
-      </c>
-      <c r="N38" s="77" t="s">
-        <v>550</v>
-      </c>
-      <c r="O38" s="77">
+      <c r="M38" s="82">
+        <v>220</v>
+      </c>
+      <c r="N38" s="82">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="O38" s="82">
         <v>0.82</v>
       </c>
-      <c r="P38" s="77">
+      <c r="P38" s="82">
         <v>1774</v>
       </c>
-      <c r="Q38" s="76">
+      <c r="Q38" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R38" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="S38" s="81">
         <v>180</v>
       </c>
-      <c r="R38" s="76" t="s">
+      <c r="T38" s="81" t="s">
         <v>321</v>
       </c>
-      <c r="S38" s="76" t="s">
+      <c r="U38" s="81" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="110" t="s">
+      <c r="V38" s="105">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="64" t="s">
-        <v>324</v>
-      </c>
+      <c r="B39" s="64"/>
       <c r="C39" s="59" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D39" s="59" t="s">
         <v>453</v>
@@ -6595,7 +7354,7 @@
         <v>325</v>
       </c>
       <c r="I39" s="59" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="J39" s="59" t="s">
         <v>323</v>
@@ -6603,11 +7362,11 @@
       <c r="K39" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L39" s="110">
+      <c r="L39" s="124">
         <v>30</v>
       </c>
       <c r="M39" s="59">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N39" s="59">
         <v>96.5</v>
@@ -6618,84 +7377,104 @@
       <c r="P39" s="59">
         <v>3563</v>
       </c>
-      <c r="Q39" s="58">
+      <c r="Q39" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
+      </c>
+      <c r="R39" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S39" s="58">
         <v>283</v>
       </c>
-      <c r="R39" s="58" t="s">
+      <c r="T39" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="S39" s="58" t="s">
+      <c r="U39" s="58" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" s="76" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="110" t="s">
+      <c r="V39" s="70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="82" t="s">
         <v>474</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="82" t="s">
+        <v>523</v>
+      </c>
+      <c r="D40" s="82" t="s">
+        <v>453</v>
+      </c>
+      <c r="E40" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="F40" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="G40" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="H40" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="I40" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="J40" s="82" t="s">
+        <v>323</v>
+      </c>
+      <c r="K40" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" s="124">
+        <v>22</v>
+      </c>
+      <c r="M40" s="82">
+        <v>220</v>
+      </c>
+      <c r="N40" s="82">
+        <v>76.2</v>
+      </c>
+      <c r="O40" s="82">
+        <v>0.81</v>
+      </c>
+      <c r="P40" s="82">
+        <v>1781</v>
+      </c>
+      <c r="Q40" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
         <v>528</v>
       </c>
-      <c r="D40" s="77" t="s">
-        <v>453</v>
-      </c>
-      <c r="E40" s="77" t="s">
-        <v>300</v>
-      </c>
-      <c r="F40" s="77" t="s">
-        <v>363</v>
-      </c>
-      <c r="G40" s="77" t="s">
-        <v>360</v>
-      </c>
-      <c r="H40" s="77" t="s">
-        <v>325</v>
-      </c>
-      <c r="I40" s="77" t="s">
-        <v>404</v>
-      </c>
-      <c r="J40" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="K40" s="77" t="s">
-        <v>326</v>
-      </c>
-      <c r="L40" s="110">
-        <v>22</v>
-      </c>
-      <c r="M40" s="77">
-        <v>440</v>
-      </c>
-      <c r="N40" s="77">
-        <v>76.2</v>
-      </c>
-      <c r="O40" s="77">
-        <v>0.81</v>
-      </c>
-      <c r="P40" s="77">
-        <v>1781</v>
-      </c>
-      <c r="Q40" s="76">
+      <c r="R40" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="S40" s="81">
         <v>236</v>
       </c>
-      <c r="R40" s="76" t="s">
+      <c r="T40" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="S40" s="76" t="s">
+      <c r="U40" s="81" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="110" t="s">
+      <c r="V40" s="105">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="124" t="s">
         <v>183</v>
       </c>
       <c r="B41" s="64" t="s">
         <v>475</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D41" s="59" t="s">
         <v>453</v>
@@ -6721,7 +7500,7 @@
       <c r="K41" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L41" s="110">
+      <c r="L41" s="124">
         <v>30</v>
       </c>
       <c r="M41" s="59">
@@ -6736,84 +7515,104 @@
       <c r="P41" s="59">
         <v>1765</v>
       </c>
-      <c r="Q41" s="58" t="s">
-        <v>324</v>
+      <c r="Q41" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
       </c>
       <c r="R41" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S41" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="T41" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="S41" s="58" t="s">
+      <c r="U41" s="58" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" s="79" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="118" t="s">
+      <c r="V41" s="70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="84" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="93" t="s">
         <v>475</v>
       </c>
-      <c r="C42" s="77" t="s">
-        <v>530</v>
-      </c>
-      <c r="D42" s="78" t="s">
+      <c r="C42" s="82" t="s">
+        <v>525</v>
+      </c>
+      <c r="D42" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="F42" s="78" t="s">
+      <c r="F42" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="G42" s="78" t="s">
+      <c r="G42" s="83" t="s">
         <v>477</v>
       </c>
-      <c r="H42" s="78" t="s">
+      <c r="H42" s="83" t="s">
         <v>325</v>
       </c>
-      <c r="I42" s="78" t="s">
+      <c r="I42" s="83" t="s">
         <v>473</v>
       </c>
-      <c r="J42" s="78" t="s">
+      <c r="J42" s="83" t="s">
         <v>323</v>
       </c>
-      <c r="K42" s="78" t="s">
+      <c r="K42" s="83" t="s">
         <v>326</v>
       </c>
-      <c r="L42" s="118">
+      <c r="L42" s="136">
         <v>30</v>
       </c>
-      <c r="M42" s="78">
-        <v>440</v>
-      </c>
-      <c r="N42" s="78" t="s">
-        <v>551</v>
-      </c>
-      <c r="O42" s="78">
+      <c r="M42" s="83">
+        <v>220</v>
+      </c>
+      <c r="N42" s="83">
+        <v>100.8</v>
+      </c>
+      <c r="O42" s="83">
         <v>0.84</v>
       </c>
-      <c r="P42" s="78">
+      <c r="P42" s="83">
         <v>1781</v>
       </c>
-      <c r="Q42" s="79">
+      <c r="Q42" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
+      </c>
+      <c r="R42" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="S42" s="84">
         <v>291</v>
       </c>
-      <c r="R42" s="79" t="s">
+      <c r="T42" s="84" t="s">
         <v>392</v>
       </c>
-      <c r="S42" s="79" t="s">
+      <c r="U42" s="84" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" s="66" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="V42" s="110">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="109" t="s">
         <v>324</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D43" s="65" t="s">
         <v>455</v>
@@ -6821,7 +7620,7 @@
       <c r="E43" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="F43" s="87" t="s">
+      <c r="F43" s="94" t="s">
         <v>416</v>
       </c>
       <c r="G43" s="65" t="s">
@@ -6854,84 +7653,104 @@
       <c r="P43" s="65">
         <v>1178</v>
       </c>
-      <c r="Q43" s="66">
+      <c r="Q43" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>432</v>
+      </c>
+      <c r="R43" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="S43" s="66">
         <v>124</v>
       </c>
-      <c r="R43" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="S43" s="66" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="82" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="128" t="s">
+      <c r="T43" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="U43" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="V43" s="96" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" s="87" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="146" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="85" t="s">
         <v>475</v>
       </c>
-      <c r="C44" s="81" t="s">
-        <v>530</v>
-      </c>
-      <c r="D44" s="81" t="s">
+      <c r="C44" s="86" t="s">
+        <v>525</v>
+      </c>
+      <c r="D44" s="86" t="s">
         <v>454</v>
       </c>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="F44" s="81" t="s">
+      <c r="F44" s="86" t="s">
         <v>476</v>
       </c>
-      <c r="G44" s="81" t="s">
+      <c r="G44" s="86" t="s">
         <v>391</v>
       </c>
-      <c r="H44" s="81" t="s">
+      <c r="H44" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="I44" s="81" t="s">
+      <c r="I44" s="86" t="s">
         <v>473</v>
       </c>
-      <c r="J44" s="81" t="s">
+      <c r="J44" s="86" t="s">
         <v>323</v>
       </c>
-      <c r="K44" s="81" t="s">
+      <c r="K44" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="L44" s="110">
+      <c r="L44" s="124">
         <v>30</v>
       </c>
-      <c r="M44" s="81">
-        <v>440</v>
-      </c>
-      <c r="N44" s="81" t="s">
-        <v>551</v>
-      </c>
-      <c r="O44" s="81">
+      <c r="M44" s="86">
+        <v>220</v>
+      </c>
+      <c r="N44" s="86">
+        <v>100.8</v>
+      </c>
+      <c r="O44" s="86">
         <v>0.84</v>
       </c>
-      <c r="P44" s="81">
+      <c r="P44" s="86">
         <v>1781</v>
       </c>
-      <c r="Q44" s="82">
+      <c r="Q44" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
+      </c>
+      <c r="R44" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="S44" s="87">
         <v>291</v>
       </c>
-      <c r="R44" s="82" t="s">
+      <c r="T44" s="87" t="s">
         <v>392</v>
       </c>
-      <c r="S44" s="82" t="s">
+      <c r="U44" s="87" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="127" t="s">
+      <c r="V44" s="88">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="145" t="s">
         <v>216</v>
       </c>
       <c r="B45" s="59" t="s">
         <v>478</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D45" s="59" t="s">
         <v>454</v>
@@ -6957,11 +7776,11 @@
       <c r="K45" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L45" s="110">
+      <c r="L45" s="124">
         <v>18.5</v>
       </c>
       <c r="M45" s="59">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N45" s="59">
         <v>64.099999999999994</v>
@@ -6972,84 +7791,104 @@
       <c r="P45" s="59">
         <v>1774</v>
       </c>
-      <c r="Q45" s="58">
+      <c r="Q45" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R45" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S45" s="58">
         <v>180</v>
       </c>
-      <c r="R45" s="58" t="s">
+      <c r="T45" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="S45" s="58" t="s">
+      <c r="U45" s="58" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" s="82" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="119" t="s">
+      <c r="V45" s="70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" s="87" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="B46" s="101" t="s">
-        <v>324</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>605</v>
-      </c>
-      <c r="D46" s="81" t="s">
+      <c r="B46" s="111" t="s">
+        <v>612</v>
+      </c>
+      <c r="C46" s="86" t="s">
+        <v>597</v>
+      </c>
+      <c r="D46" s="86" t="s">
         <v>454</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="F46" s="81" t="s">
+      <c r="F46" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="G46" s="81" t="s">
+      <c r="G46" s="86" t="s">
         <v>397</v>
       </c>
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="I46" s="81" t="s">
-        <v>532</v>
-      </c>
-      <c r="J46" s="81" t="s">
+      <c r="I46" s="86" t="s">
+        <v>527</v>
+      </c>
+      <c r="J46" s="86" t="s">
         <v>323</v>
       </c>
-      <c r="K46" s="81" t="s">
+      <c r="K46" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="L46" s="110">
+      <c r="L46" s="124">
         <v>30</v>
       </c>
-      <c r="M46" s="81">
-        <v>440</v>
-      </c>
-      <c r="N46" s="81">
+      <c r="M46" s="86">
+        <v>220</v>
+      </c>
+      <c r="N46" s="86">
         <v>96.5</v>
       </c>
-      <c r="O46" s="81">
+      <c r="O46" s="86">
         <v>0.89</v>
       </c>
-      <c r="P46" s="81">
+      <c r="P46" s="86">
         <v>3563</v>
       </c>
-      <c r="Q46" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="R46" s="82" t="s">
+      <c r="Q46" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
+      </c>
+      <c r="R46" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="S46" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="T46" s="87" t="s">
         <v>392</v>
       </c>
-      <c r="S46" s="82" t="s">
+      <c r="U46" s="87" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="110" t="s">
+      <c r="V46" s="88">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="124" t="s">
         <v>220</v>
       </c>
       <c r="B47" s="59" t="s">
         <v>474</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D47" s="59" t="s">
         <v>454</v>
@@ -7067,7 +7906,7 @@
         <v>325</v>
       </c>
       <c r="I47" s="59" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="J47" s="59" t="s">
         <v>323</v>
@@ -7075,14 +7914,14 @@
       <c r="K47" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L47" s="110">
+      <c r="L47" s="124">
         <v>22</v>
       </c>
       <c r="M47" s="59">
-        <v>440</v>
-      </c>
-      <c r="N47" s="59" t="s">
-        <v>552</v>
+        <v>220</v>
+      </c>
+      <c r="N47" s="59">
+        <v>76.2</v>
       </c>
       <c r="O47" s="59">
         <v>0.81</v>
@@ -7090,155 +7929,185 @@
       <c r="P47" s="59">
         <v>1781</v>
       </c>
-      <c r="Q47" s="58" t="s">
-        <v>324</v>
+      <c r="Q47" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>528</v>
       </c>
       <c r="R47" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S47" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="T47" s="58" t="s">
         <v>366</v>
       </c>
-      <c r="S47" s="58" t="s">
+      <c r="U47" s="58" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" s="82" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="119" t="s">
+      <c r="V47" s="70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" s="87" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="137" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="85" t="s">
         <v>475</v>
       </c>
-      <c r="C48" s="81" t="s">
-        <v>530</v>
-      </c>
-      <c r="D48" s="81" t="s">
+      <c r="C48" s="86" t="s">
+        <v>525</v>
+      </c>
+      <c r="D48" s="86" t="s">
         <v>454</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="86" t="s">
         <v>367</v>
       </c>
-      <c r="F48" s="81" t="s">
+      <c r="F48" s="86" t="s">
         <v>371</v>
       </c>
-      <c r="G48" s="81" t="s">
+      <c r="G48" s="86" t="s">
         <v>411</v>
       </c>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="86" t="s">
         <v>418</v>
       </c>
-      <c r="I48" s="81" t="s">
+      <c r="I48" s="86" t="s">
         <v>473</v>
       </c>
-      <c r="J48" s="81" t="s">
+      <c r="J48" s="86" t="s">
         <v>323</v>
       </c>
-      <c r="K48" s="81" t="s">
+      <c r="K48" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="L48" s="110">
+      <c r="L48" s="124">
         <v>30</v>
       </c>
-      <c r="M48" s="81">
+      <c r="M48" s="86">
         <v>220</v>
       </c>
-      <c r="N48" s="81">
+      <c r="N48" s="86">
         <v>100</v>
       </c>
-      <c r="O48" s="81">
+      <c r="O48" s="86">
         <v>0.82</v>
       </c>
-      <c r="P48" s="81">
+      <c r="P48" s="86">
         <v>1765</v>
       </c>
-      <c r="Q48" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="R48" s="82" t="s">
+      <c r="Q48" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
+      </c>
+      <c r="R48" s="87" t="s">
+        <v>368</v>
+      </c>
+      <c r="S48" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="T48" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="S48" s="82" t="s">
+      <c r="U48" s="87" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="118" t="s">
+      <c r="V48" s="88" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="136" t="s">
         <v>222</v>
       </c>
       <c r="B49" s="64" t="s">
         <v>475</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>530</v>
-      </c>
-      <c r="D49" s="69" t="s">
+        <v>525</v>
+      </c>
+      <c r="D49" s="71" t="s">
         <v>454</v>
       </c>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="71" t="s">
         <v>367</v>
       </c>
-      <c r="F49" s="69" t="s">
+      <c r="F49" s="71" t="s">
         <v>371</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="G49" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="H49" s="69" t="s">
+      <c r="H49" s="71" t="s">
         <v>418</v>
       </c>
-      <c r="I49" s="69" t="s">
+      <c r="I49" s="71" t="s">
         <v>473</v>
       </c>
-      <c r="J49" s="69" t="s">
+      <c r="J49" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="K49" s="69" t="s">
+      <c r="K49" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="L49" s="118">
+      <c r="L49" s="136">
         <v>30</v>
       </c>
-      <c r="M49" s="69">
+      <c r="M49" s="71">
         <v>220</v>
       </c>
-      <c r="N49" s="69">
+      <c r="N49" s="71">
         <v>100</v>
       </c>
-      <c r="O49" s="69">
+      <c r="O49" s="71">
         <v>0.82</v>
       </c>
-      <c r="P49" s="69">
+      <c r="P49" s="71">
         <v>1765</v>
       </c>
-      <c r="Q49" s="70" t="s">
-        <v>324</v>
-      </c>
-      <c r="R49" s="70" t="s">
+      <c r="Q49" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
+      </c>
+      <c r="R49" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="S49" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="T49" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="S49" s="70" t="s">
+      <c r="U49" s="72" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="131" t="s">
+      <c r="V49" s="73" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="149" t="s">
         <v>195</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E50" s="62" t="s">
         <v>305</v>
       </c>
       <c r="F50" s="62" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G50" s="62" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H50" s="62" t="s">
         <v>418</v>
@@ -7267,37 +8136,47 @@
       <c r="P50" s="62">
         <v>1765</v>
       </c>
-      <c r="Q50" s="63">
+      <c r="Q50" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>607.20000000000005</v>
+      </c>
+      <c r="R50" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="S50" s="63">
         <v>155</v>
       </c>
-      <c r="R50" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="S50" s="63" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="131" t="s">
+      <c r="T50" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="U50" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="V50" s="122" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="149" t="s">
         <v>197</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D51" s="59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E51" s="59" t="s">
         <v>305</v>
       </c>
       <c r="F51" s="59" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G51" s="59" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H51" s="59" t="s">
         <v>418</v>
@@ -7311,7 +8190,7 @@
       <c r="K51" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L51" s="110">
+      <c r="L51" s="124">
         <v>25.3</v>
       </c>
       <c r="M51" s="59">
@@ -7326,18 +8205,28 @@
       <c r="P51" s="59">
         <v>1765</v>
       </c>
-      <c r="Q51" s="58">
+      <c r="Q51" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>607.20000000000005</v>
+      </c>
+      <c r="R51" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="S51" s="58">
         <v>155</v>
       </c>
-      <c r="R51" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S51" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="131" t="s">
+      <c r="T51" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U51" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V51" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="149" t="s">
         <v>199</v>
       </c>
       <c r="B52" s="62" t="s">
@@ -7347,13 +8236,13 @@
         <v>492</v>
       </c>
       <c r="D52" s="59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E52" s="59" t="s">
         <v>347</v>
       </c>
       <c r="F52" s="59" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G52" s="59">
         <v>20142</v>
@@ -7370,7 +8259,7 @@
       <c r="K52" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L52" s="110">
+      <c r="L52" s="124">
         <v>7.5</v>
       </c>
       <c r="M52" s="59">
@@ -7385,25 +8274,35 @@
       <c r="P52" s="59">
         <v>3480</v>
       </c>
-      <c r="Q52" s="58">
+      <c r="Q52" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>180</v>
+      </c>
+      <c r="R52" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="S52" s="58">
         <v>68</v>
       </c>
-      <c r="R52" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S52" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="110" t="s">
+      <c r="T52" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U52" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V52" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="124" t="s">
         <v>201</v>
       </c>
       <c r="B53" s="64" t="s">
         <v>475</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D53" s="59" t="s">
         <v>493</v>
@@ -7429,7 +8328,7 @@
       <c r="K53" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="L53" s="110">
+      <c r="L53" s="124">
         <v>30</v>
       </c>
       <c r="M53" s="59">
@@ -7444,18 +8343,28 @@
       <c r="P53" s="59">
         <v>1760</v>
       </c>
-      <c r="Q53" s="58" t="s">
-        <v>324</v>
+      <c r="Q53" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
       </c>
       <c r="R53" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S53" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="T53" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="S53" s="58" t="s">
+      <c r="U53" s="58" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="110" t="s">
+      <c r="V53" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="124" t="s">
         <v>203</v>
       </c>
       <c r="B54" s="62" t="s">
@@ -7480,7 +8389,7 @@
         <v>418</v>
       </c>
       <c r="I54" s="59" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="J54" s="59" t="s">
         <v>323</v>
@@ -7488,14 +8397,14 @@
       <c r="K54" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="L54" s="110">
+      <c r="L54" s="124">
         <v>34.5</v>
       </c>
       <c r="M54" s="59">
-        <v>380</v>
-      </c>
-      <c r="N54" s="59">
-        <v>66.5</v>
+        <v>220</v>
+      </c>
+      <c r="N54" s="125">
+        <v>66</v>
       </c>
       <c r="O54" s="59">
         <v>0.84</v>
@@ -7503,17 +8412,27 @@
       <c r="P54" s="59">
         <v>1800</v>
       </c>
-      <c r="Q54" s="58">
+      <c r="Q54" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>828</v>
+      </c>
+      <c r="R54" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="S54" s="58">
         <v>218</v>
       </c>
-      <c r="R54" s="58" t="s">
+      <c r="T54" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="S54" s="58" t="s">
+      <c r="U54" s="58" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="V54" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="49" t="s">
         <v>224</v>
       </c>
@@ -7551,10 +8470,10 @@
         <v>8.6</v>
       </c>
       <c r="M55" s="62">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N55" s="62">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O55" s="62">
         <v>0.89</v>
@@ -7562,25 +8481,35 @@
       <c r="P55" s="62">
         <v>3600</v>
       </c>
-      <c r="Q55" s="63">
+      <c r="Q55" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>206.39999999999998</v>
+      </c>
+      <c r="R55" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="S55" s="63">
         <v>39</v>
       </c>
-      <c r="R55" s="63" t="s">
+      <c r="T55" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="S55" s="63" t="s">
+      <c r="U55" s="63" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="110" t="s">
+      <c r="V55" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="124" t="s">
         <v>159</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D56" s="59" t="s">
         <v>500</v>
@@ -7606,7 +8535,7 @@
       <c r="K56" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L56" s="110">
+      <c r="L56" s="124">
         <v>15</v>
       </c>
       <c r="M56" s="59">
@@ -7621,25 +8550,35 @@
       <c r="P56" s="59">
         <v>1750</v>
       </c>
-      <c r="Q56" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="R56" s="63" t="s">
-        <v>324</v>
+      <c r="Q56" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="R56" s="58" t="s">
+        <v>368</v>
       </c>
       <c r="S56" s="63" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="110" t="s">
+      <c r="T56" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="U56" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="V56" s="63" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="124" t="s">
         <v>169</v>
       </c>
       <c r="B57" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D57" s="59" t="s">
         <v>500</v>
@@ -7665,7 +8604,7 @@
       <c r="K57" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L57" s="110">
+      <c r="L57" s="124">
         <v>15</v>
       </c>
       <c r="M57" s="59">
@@ -7680,18 +8619,28 @@
       <c r="P57" s="59">
         <v>1750</v>
       </c>
-      <c r="Q57" s="58">
+      <c r="Q57" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="R57" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S57" s="58">
         <v>135</v>
       </c>
-      <c r="R57" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S57" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="143" t="s">
+      <c r="T57" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U57" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V57" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="160" t="s">
         <v>232</v>
       </c>
       <c r="B58" s="62" t="s">
@@ -7724,7 +8673,7 @@
       <c r="K58" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L58" s="110">
+      <c r="L58" s="124">
         <v>15</v>
       </c>
       <c r="M58" s="59">
@@ -7739,25 +8688,35 @@
       <c r="P58" s="59">
         <v>1750</v>
       </c>
-      <c r="Q58" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="R58" s="63" t="s">
-        <v>324</v>
+      <c r="Q58" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="R58" s="58" t="s">
+        <v>368</v>
       </c>
       <c r="S58" s="63" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="143" t="s">
+      <c r="T58" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="U58" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="V58" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="160" t="s">
         <v>238</v>
       </c>
       <c r="B59" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D59" s="59" t="s">
         <v>500</v>
@@ -7783,7 +8742,7 @@
       <c r="K59" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L59" s="110">
+      <c r="L59" s="124">
         <v>15</v>
       </c>
       <c r="M59" s="59">
@@ -7798,37 +8757,47 @@
       <c r="P59" s="59">
         <v>1750</v>
       </c>
-      <c r="Q59" s="58">
+      <c r="Q59" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>360</v>
+      </c>
+      <c r="R59" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S59" s="58">
         <v>135</v>
       </c>
-      <c r="R59" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S59" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="135" t="s">
+      <c r="T59" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U59" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V59" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="153" t="s">
         <v>234</v>
       </c>
       <c r="B60" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D60" s="59" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E60" s="59" t="s">
         <v>300</v>
       </c>
       <c r="F60" s="59" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G60" s="59" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="H60" s="59" t="s">
         <v>418</v>
@@ -7842,7 +8811,7 @@
       <c r="K60" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L60" s="110">
+      <c r="L60" s="124">
         <v>22</v>
       </c>
       <c r="M60" s="59">
@@ -7857,37 +8826,47 @@
       <c r="P60" s="59">
         <v>1800</v>
       </c>
-      <c r="Q60" s="58">
+      <c r="Q60" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>528</v>
+      </c>
+      <c r="R60" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S60" s="58">
         <v>186</v>
       </c>
-      <c r="R60" s="58" t="s">
+      <c r="T60" s="58" t="s">
         <v>366</v>
       </c>
-      <c r="S60" s="58" t="s">
+      <c r="U60" s="58" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="135" t="s">
+      <c r="V60" s="61">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="153" t="s">
         <v>236</v>
       </c>
       <c r="B61" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E61" s="59" t="s">
         <v>300</v>
       </c>
       <c r="F61" s="59" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G61" s="59" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="H61" s="59" t="s">
         <v>418</v>
@@ -7901,7 +8880,7 @@
       <c r="K61" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L61" s="110">
+      <c r="L61" s="124">
         <v>22</v>
       </c>
       <c r="M61" s="59">
@@ -7916,19 +8895,29 @@
       <c r="P61" s="59">
         <v>1800</v>
       </c>
-      <c r="Q61" s="58">
+      <c r="Q61" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>528</v>
+      </c>
+      <c r="R61" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S61" s="58">
         <v>186</v>
       </c>
-      <c r="R61" s="58" t="s">
+      <c r="T61" s="58" t="s">
         <v>366</v>
       </c>
-      <c r="S61" s="58" t="s">
+      <c r="U61" s="58" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="135" t="s">
-        <v>574</v>
+      <c r="V61" s="61">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="153" t="s">
+        <v>566</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>324</v>
@@ -7937,13 +8926,13 @@
         <v>492</v>
       </c>
       <c r="D62" s="59" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E62" s="59" t="s">
         <v>347</v>
       </c>
       <c r="F62" s="59" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G62" s="59">
         <v>20141</v>
@@ -7960,14 +8949,14 @@
       <c r="K62" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L62" s="110">
+      <c r="L62" s="124">
         <v>7.5</v>
       </c>
       <c r="M62" s="59">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N62" s="59">
-        <v>12.9</v>
+        <v>25.7</v>
       </c>
       <c r="O62" s="59">
         <v>0.88</v>
@@ -7975,28 +8964,38 @@
       <c r="P62" s="59">
         <v>3480</v>
       </c>
-      <c r="Q62" s="58">
+      <c r="Q62" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>180</v>
+      </c>
+      <c r="R62" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="S62" s="58">
         <v>68</v>
       </c>
-      <c r="R62" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S62" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="135" t="s">
-        <v>575</v>
+      <c r="T62" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U62" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V62" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="153" t="s">
+        <v>567</v>
       </c>
       <c r="B63" s="64" t="s">
         <v>475</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D63" s="59" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E63" s="59" t="s">
         <v>367</v>
@@ -8019,7 +9018,7 @@
       <c r="K63" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="L63" s="110">
+      <c r="L63" s="124">
         <v>30</v>
       </c>
       <c r="M63" s="59">
@@ -8034,25 +9033,35 @@
       <c r="P63" s="59">
         <v>1760</v>
       </c>
-      <c r="Q63" s="58" t="s">
-        <v>324</v>
+      <c r="Q63" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
       </c>
       <c r="R63" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S63" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="T63" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="S63" s="58" t="s">
+      <c r="U63" s="58" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="135" t="s">
-        <v>576</v>
+      <c r="V63" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="153" t="s">
+        <v>568</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D64" s="59" t="s">
         <v>493</v>
@@ -8061,10 +9070,10 @@
         <v>305</v>
       </c>
       <c r="F64" s="59" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G64" s="59" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H64" s="59" t="s">
         <v>418</v>
@@ -8078,14 +9087,14 @@
       <c r="K64" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="L64" s="110">
-        <v>34.5</v>
+      <c r="L64" s="124">
+        <v>30</v>
       </c>
       <c r="M64" s="59">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N64" s="59">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="O64" s="59">
         <v>0.86</v>
@@ -8093,19 +9102,29 @@
       <c r="P64" s="59">
         <v>1800</v>
       </c>
-      <c r="Q64" s="58">
+      <c r="Q64" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>720</v>
+      </c>
+      <c r="R64" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="S64" s="58">
         <v>205</v>
       </c>
-      <c r="R64" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="S64" s="61" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="135" t="s">
-        <v>577</v>
+      <c r="T64" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="U64" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="V64" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="153" t="s">
+        <v>569</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>324</v>
@@ -8114,13 +9133,13 @@
         <v>492</v>
       </c>
       <c r="D65" s="59" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E65" s="59" t="s">
         <v>347</v>
       </c>
       <c r="F65" s="59" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G65" s="59">
         <v>20145</v>
@@ -8137,14 +9156,14 @@
       <c r="K65" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="L65" s="110">
+      <c r="L65" s="124">
         <v>7.5</v>
       </c>
       <c r="M65" s="59">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N65" s="59">
-        <v>12.9</v>
+        <v>25.7</v>
       </c>
       <c r="O65" s="59">
         <v>0.88</v>
@@ -8152,28 +9171,38 @@
       <c r="P65" s="59">
         <v>3480</v>
       </c>
-      <c r="Q65" s="58">
+      <c r="Q65" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>180</v>
+      </c>
+      <c r="R65" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="S65" s="58">
         <v>68</v>
       </c>
-      <c r="R65" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S65" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="132" t="s">
-        <v>535</v>
+      <c r="T65" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U65" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V65" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A66" s="150" t="s">
+        <v>530</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D66" s="59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E66" s="59" t="s">
         <v>504</v>
@@ -8196,11 +9225,11 @@
       <c r="K66" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="L66" s="110">
+      <c r="L66" s="124">
         <v>158</v>
       </c>
       <c r="M66" s="59">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N66" s="59">
         <v>244</v>
@@ -8211,28 +9240,38 @@
       <c r="P66" s="59">
         <v>1785</v>
       </c>
-      <c r="Q66" s="58">
+      <c r="Q66" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>3792</v>
+      </c>
+      <c r="R66" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S66" s="58">
         <v>1050</v>
       </c>
-      <c r="R66" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S66" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="58" x14ac:dyDescent="0.35">
-      <c r="A67" s="132" t="s">
-        <v>536</v>
+      <c r="T66" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U66" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V66" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="150" t="s">
+        <v>531</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C67" s="62" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D67" s="59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E67" s="62" t="s">
         <v>508</v>
@@ -8270,28 +9309,38 @@
       <c r="P67" s="62">
         <v>3450</v>
       </c>
-      <c r="Q67" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="R67" s="58" t="s">
-        <v>324</v>
+      <c r="Q67" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>264</v>
+      </c>
+      <c r="R67" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="S67" s="58" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="132" t="s">
-        <v>537</v>
+      <c r="T67" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U67" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V67" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A68" s="150" t="s">
+        <v>532</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C68" s="59" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D68" s="59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E68" s="59" t="s">
         <v>504</v>
@@ -8314,11 +9363,11 @@
       <c r="K68" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L68" s="110">
+      <c r="L68" s="124">
         <v>158</v>
       </c>
       <c r="M68" s="59">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N68" s="59">
         <v>244</v>
@@ -8329,28 +9378,38 @@
       <c r="P68" s="59">
         <v>1785</v>
       </c>
-      <c r="Q68" s="58">
+      <c r="Q68" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>3792</v>
+      </c>
+      <c r="R68" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S68" s="58">
         <v>1050</v>
       </c>
-      <c r="R68" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S68" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="58" x14ac:dyDescent="0.35">
-      <c r="A69" s="132" t="s">
-        <v>538</v>
+      <c r="T68" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U68" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V68" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="150" t="s">
+        <v>533</v>
       </c>
       <c r="B69" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C69" s="62" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D69" s="59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E69" s="62" t="s">
         <v>508</v>
@@ -8388,25 +9447,35 @@
       <c r="P69" s="62">
         <v>3450</v>
       </c>
-      <c r="Q69" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="R69" s="58" t="s">
-        <v>324</v>
+      <c r="Q69" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>264</v>
+      </c>
+      <c r="R69" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="S69" s="58" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" ht="58" x14ac:dyDescent="0.35">
-      <c r="A70" s="132" t="s">
-        <v>539</v>
+      <c r="T69" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U69" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V69" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="150" t="s">
+        <v>534</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D70" s="59" t="s">
         <v>500</v>
@@ -8432,7 +9501,7 @@
       <c r="K70" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L70" s="110">
+      <c r="L70" s="124">
         <v>110</v>
       </c>
       <c r="M70" s="59">
@@ -8447,28 +9516,36 @@
       <c r="P70" s="59">
         <v>1800</v>
       </c>
-      <c r="Q70" s="58">
+      <c r="Q70" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>2640</v>
+      </c>
+      <c r="R70" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S70" s="58">
         <v>1100</v>
       </c>
-      <c r="R70" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S70" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="58" x14ac:dyDescent="0.35">
-      <c r="A71" s="132" t="s">
-        <v>540</v>
+      <c r="T70" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U70" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V70" s="61"/>
+    </row>
+    <row r="71" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="150" t="s">
+        <v>535</v>
       </c>
       <c r="B71" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C71" s="62" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D71" s="59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E71" s="62" t="s">
         <v>508</v>
@@ -8506,25 +9583,35 @@
       <c r="P71" s="62">
         <v>3450</v>
       </c>
-      <c r="Q71" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="R71" s="58" t="s">
-        <v>324</v>
+      <c r="Q71" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>264</v>
+      </c>
+      <c r="R71" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="S71" s="58" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" ht="58" x14ac:dyDescent="0.35">
-      <c r="A72" s="132" t="s">
-        <v>541</v>
+      <c r="T71" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U71" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V71" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="150" t="s">
+        <v>536</v>
       </c>
       <c r="B72" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C72" s="59" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D72" s="59" t="s">
         <v>500</v>
@@ -8550,7 +9637,7 @@
       <c r="K72" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L72" s="110">
+      <c r="L72" s="124">
         <v>110</v>
       </c>
       <c r="M72" s="59">
@@ -8565,28 +9652,36 @@
       <c r="P72" s="59">
         <v>1800</v>
       </c>
-      <c r="Q72" s="58">
+      <c r="Q72" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>2640</v>
+      </c>
+      <c r="R72" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S72" s="58">
         <v>1100</v>
       </c>
-      <c r="R72" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="S72" s="58" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="58" x14ac:dyDescent="0.35">
-      <c r="A73" s="132" t="s">
-        <v>542</v>
+      <c r="T72" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U72" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V72" s="61"/>
+    </row>
+    <row r="73" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="150" t="s">
+        <v>537</v>
       </c>
       <c r="B73" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C73" s="62" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D73" s="59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E73" s="62" t="s">
         <v>508</v>
@@ -8624,37 +9719,47 @@
       <c r="P73" s="62">
         <v>3450</v>
       </c>
-      <c r="Q73" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="R73" s="58" t="s">
-        <v>324</v>
+      <c r="Q73" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>264</v>
+      </c>
+      <c r="R73" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="S73" s="58" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="110" t="s">
-        <v>543</v>
+      <c r="T73" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U73" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V73" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74" s="124" t="s">
+        <v>538</v>
       </c>
       <c r="B74" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C74" s="59" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D74" s="59" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E74" s="59" t="s">
         <v>511</v>
       </c>
       <c r="F74" s="59" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G74" s="59" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H74" s="59" t="s">
         <v>418</v>
@@ -8668,7 +9773,7 @@
       <c r="K74" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="L74" s="110">
+      <c r="L74" s="124">
         <v>132</v>
       </c>
       <c r="M74" s="59">
@@ -8683,34 +9788,44 @@
       <c r="P74" s="59">
         <v>1785</v>
       </c>
-      <c r="Q74" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="R74" s="58" t="s">
-        <v>324</v>
+      <c r="Q74" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>3168</v>
+      </c>
+      <c r="R74" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="S74" s="58" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+      <c r="T74" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U74" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V74" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="49" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B75" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C75" s="62" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D75" s="62" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E75" s="62" t="s">
         <v>508</v>
       </c>
       <c r="F75" s="62" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G75" s="62">
         <v>402153530</v>
@@ -8742,37 +9857,47 @@
       <c r="P75" s="62">
         <v>3450</v>
       </c>
-      <c r="Q75" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="R75" s="58" t="s">
-        <v>324</v>
+      <c r="Q75" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>264</v>
+      </c>
+      <c r="R75" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="S75" s="58" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T75" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U75" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V75" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="49" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B76" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C76" s="59" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D76" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="E76" s="59" t="s">
+        <v>558</v>
+      </c>
+      <c r="F76" s="59" t="s">
         <v>559</v>
       </c>
-      <c r="E76" s="59" t="s">
-        <v>566</v>
-      </c>
-      <c r="F76" s="59" t="s">
-        <v>567</v>
-      </c>
       <c r="G76" s="59" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="H76" s="62" t="s">
         <v>418</v>
@@ -8786,7 +9911,7 @@
       <c r="K76" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="L76" s="110">
+      <c r="L76" s="124">
         <v>160</v>
       </c>
       <c r="M76" s="59">
@@ -8801,40 +9926,50 @@
       <c r="P76" s="59">
         <v>1790</v>
       </c>
-      <c r="Q76" s="58">
+      <c r="Q76" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>3840</v>
+      </c>
+      <c r="R76" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="S76" s="58">
         <v>1130</v>
       </c>
-      <c r="R76" s="58" t="s">
-        <v>569</v>
-      </c>
-      <c r="S76" s="58" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T76" s="58" t="s">
+        <v>561</v>
+      </c>
+      <c r="U76" s="58" t="s">
+        <v>562</v>
+      </c>
+      <c r="V76" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="49" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B77" s="62" t="s">
         <v>324</v>
       </c>
       <c r="C77" s="62" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D77" s="62" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E77" s="62" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F77" s="62" t="s">
-        <v>564</v>
-      </c>
-      <c r="G77" s="136">
+        <v>556</v>
+      </c>
+      <c r="G77" s="154">
         <v>20221257001001</v>
       </c>
       <c r="H77" s="62" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="I77" s="62" t="s">
         <v>344</v>
@@ -8860,93 +9995,113 @@
       <c r="P77" s="62">
         <v>3500</v>
       </c>
-      <c r="Q77" s="63">
+      <c r="Q77" s="124">
+        <f>Table2[[#This Row],[POTENCIA (kW)]]*24</f>
+        <v>444</v>
+      </c>
+      <c r="R77" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="S77" s="63">
         <v>134</v>
       </c>
-      <c r="R77" s="63">
+      <c r="T77" s="63">
         <v>6309</v>
       </c>
-      <c r="S77" s="63">
+      <c r="U77" s="63">
         <v>6309</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" s="139" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="141" t="s">
+      <c r="V77" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" s="157" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="156" t="s">
         <v>613</v>
       </c>
-      <c r="B78" s="138" t="s">
-        <v>324</v>
-      </c>
-      <c r="C78" s="138" t="s">
-        <v>592</v>
-      </c>
-      <c r="D78" s="138" t="s">
-        <v>586</v>
-      </c>
-      <c r="E78" s="138" t="s">
-        <v>587</v>
-      </c>
-      <c r="F78" s="138" t="s">
-        <v>588</v>
-      </c>
-      <c r="G78" s="138" t="s">
-        <v>324</v>
-      </c>
-      <c r="H78" s="138" t="s">
-        <v>589</v>
-      </c>
-      <c r="I78" s="138" t="s">
+      <c r="B78" s="156" t="s">
+        <v>324</v>
+      </c>
+      <c r="C78" s="156" t="s">
+        <v>584</v>
+      </c>
+      <c r="D78" s="156" t="s">
+        <v>578</v>
+      </c>
+      <c r="E78" s="156" t="s">
+        <v>579</v>
+      </c>
+      <c r="F78" s="156" t="s">
+        <v>580</v>
+      </c>
+      <c r="G78" s="156" t="s">
+        <v>324</v>
+      </c>
+      <c r="H78" s="156" t="s">
+        <v>581</v>
+      </c>
+      <c r="I78" s="156" t="s">
         <v>336</v>
       </c>
-      <c r="J78" s="138" t="s">
+      <c r="J78" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="K78" s="138" t="s">
-        <v>324</v>
-      </c>
-      <c r="L78" s="110">
+      <c r="K78" s="156" t="s">
+        <v>324</v>
+      </c>
+      <c r="L78" s="124">
         <v>7.5</v>
       </c>
-      <c r="M78" s="138">
+      <c r="M78" s="156">
         <v>220</v>
       </c>
-      <c r="N78" s="138">
+      <c r="N78" s="156">
         <v>30</v>
       </c>
-      <c r="O78" s="138">
+      <c r="O78" s="156">
         <v>0.75</v>
       </c>
-      <c r="P78" s="138">
+      <c r="P78" s="156">
         <v>1170</v>
       </c>
-      <c r="Q78" s="139" t="s">
-        <v>324</v>
-      </c>
-      <c r="R78" s="139" t="s">
-        <v>324</v>
-      </c>
-      <c r="S78" s="139" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" s="59" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="141" t="s">
+      <c r="Q78" s="124">
+        <f t="shared" ref="Q78:Q86" si="0">L78*24</f>
+        <v>180</v>
+      </c>
+      <c r="R78" s="157" t="s">
+        <v>368</v>
+      </c>
+      <c r="S78" s="157" t="s">
+        <v>324</v>
+      </c>
+      <c r="T78" s="157" t="s">
+        <v>324</v>
+      </c>
+      <c r="U78" s="157" t="s">
+        <v>324</v>
+      </c>
+      <c r="V78" s="158" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="59" t="s">
         <v>614</v>
       </c>
       <c r="B79" s="59" t="s">
         <v>324</v>
       </c>
       <c r="C79" s="59" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D79" s="59" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E79" s="59" t="s">
         <v>504</v>
       </c>
       <c r="F79" s="59" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G79" s="59">
         <v>220265</v>
@@ -8963,7 +10118,7 @@
       <c r="K79" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L79" s="110">
+      <c r="L79" s="124">
         <v>18.5</v>
       </c>
       <c r="M79" s="59">
@@ -8978,96 +10133,116 @@
       <c r="P79" s="59">
         <v>1150</v>
       </c>
-      <c r="Q79" s="58" t="s">
-        <v>324</v>
+      <c r="Q79" s="124">
+        <f t="shared" si="0"/>
+        <v>444</v>
       </c>
       <c r="R79" s="58" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="S79" s="58" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" s="139" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="141" t="s">
+      <c r="T79" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U79" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V79" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" s="157" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="156" t="s">
         <v>615</v>
       </c>
-      <c r="B80" s="138" t="s">
-        <v>324</v>
-      </c>
-      <c r="C80" s="138" t="s">
-        <v>593</v>
-      </c>
-      <c r="D80" s="138" t="s">
+      <c r="B80" s="156" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" s="156" t="s">
+        <v>585</v>
+      </c>
+      <c r="D80" s="156" t="s">
+        <v>578</v>
+      </c>
+      <c r="E80" s="156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F80" s="156" t="s">
         <v>586</v>
       </c>
-      <c r="E80" s="138" t="s">
-        <v>300</v>
-      </c>
-      <c r="F80" s="138" t="s">
-        <v>594</v>
-      </c>
-      <c r="G80" s="138" t="s">
+      <c r="G80" s="156" t="s">
+        <v>587</v>
+      </c>
+      <c r="H80" s="156" t="s">
+        <v>418</v>
+      </c>
+      <c r="I80" s="156" t="s">
+        <v>545</v>
+      </c>
+      <c r="J80" s="156" t="s">
+        <v>323</v>
+      </c>
+      <c r="K80" s="156" t="s">
+        <v>326</v>
+      </c>
+      <c r="L80" s="124">
+        <v>22</v>
+      </c>
+      <c r="M80" s="156">
+        <v>220</v>
+      </c>
+      <c r="N80" s="156">
+        <v>78.8</v>
+      </c>
+      <c r="O80" s="156">
+        <v>0.79</v>
+      </c>
+      <c r="P80" s="156">
+        <v>1773</v>
+      </c>
+      <c r="Q80" s="124">
+        <f t="shared" si="0"/>
+        <v>528</v>
+      </c>
+      <c r="R80" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="S80" s="157">
+        <v>168</v>
+      </c>
+      <c r="T80" s="157" t="s">
+        <v>588</v>
+      </c>
+      <c r="U80" s="157" t="s">
+        <v>589</v>
+      </c>
+      <c r="V80" s="158">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="59" t="s">
+        <v>616</v>
+      </c>
+      <c r="B81" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81" s="59" t="s">
         <v>595</v>
       </c>
-      <c r="H80" s="138" t="s">
-        <v>418</v>
-      </c>
-      <c r="I80" s="138" t="s">
-        <v>553</v>
-      </c>
-      <c r="J80" s="138" t="s">
-        <v>323</v>
-      </c>
-      <c r="K80" s="138" t="s">
-        <v>326</v>
-      </c>
-      <c r="L80" s="110">
-        <v>22</v>
-      </c>
-      <c r="M80" s="138">
-        <v>220</v>
-      </c>
-      <c r="N80" s="138">
-        <v>78.8</v>
-      </c>
-      <c r="O80" s="138">
-        <v>0.79</v>
-      </c>
-      <c r="P80" s="138">
-        <v>1773</v>
-      </c>
-      <c r="Q80" s="139">
-        <v>168</v>
-      </c>
-      <c r="R80" s="139" t="s">
-        <v>596</v>
-      </c>
-      <c r="S80" s="139" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="59" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="141" t="s">
-        <v>616</v>
-      </c>
-      <c r="B81" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>603</v>
-      </c>
       <c r="D81" s="59" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E81" s="59" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F81" s="59" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="G81" s="59" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="H81" s="59" t="s">
         <v>418</v>
@@ -9081,7 +10256,7 @@
       <c r="K81" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="L81" s="110">
+      <c r="L81" s="124">
         <v>22</v>
       </c>
       <c r="M81" s="59">
@@ -9096,95 +10271,115 @@
       <c r="P81" s="59">
         <v>1765</v>
       </c>
-      <c r="Q81" s="58" t="s">
-        <v>324</v>
+      <c r="Q81" s="124">
+        <f t="shared" si="0"/>
+        <v>528</v>
       </c>
       <c r="R81" s="58" t="s">
-        <v>601</v>
+        <v>368</v>
       </c>
       <c r="S81" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="T81" s="58" t="s">
+        <v>593</v>
+      </c>
+      <c r="U81" s="58" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" s="139" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="141" t="s">
+      <c r="V81" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" s="157" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="156" t="s">
         <v>617</v>
       </c>
-      <c r="B82" s="138" t="s">
-        <v>324</v>
-      </c>
-      <c r="C82" s="138" t="s">
-        <v>603</v>
-      </c>
-      <c r="D82" s="138" t="s">
-        <v>586</v>
-      </c>
-      <c r="E82" s="138" t="s">
+      <c r="B82" s="156" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" s="156" t="s">
+        <v>595</v>
+      </c>
+      <c r="D82" s="156" t="s">
+        <v>578</v>
+      </c>
+      <c r="E82" s="156" t="s">
         <v>300</v>
       </c>
-      <c r="F82" s="138" t="s">
+      <c r="F82" s="156" t="s">
+        <v>570</v>
+      </c>
+      <c r="G82" s="159">
+        <v>3.0101515049977098E+18</v>
+      </c>
+      <c r="H82" s="156" t="s">
+        <v>418</v>
+      </c>
+      <c r="I82" s="156" t="s">
+        <v>419</v>
+      </c>
+      <c r="J82" s="156" t="s">
+        <v>323</v>
+      </c>
+      <c r="K82" s="156" t="s">
+        <v>326</v>
+      </c>
+      <c r="L82" s="124">
+        <v>22</v>
+      </c>
+      <c r="M82" s="156">
+        <v>220</v>
+      </c>
+      <c r="N82" s="156">
+        <v>73.8</v>
+      </c>
+      <c r="O82" s="156">
+        <v>0.88</v>
+      </c>
+      <c r="P82" s="156">
+        <v>1770</v>
+      </c>
+      <c r="Q82" s="124">
+        <f t="shared" si="0"/>
+        <v>528</v>
+      </c>
+      <c r="R82" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="S82" s="157">
+        <v>186</v>
+      </c>
+      <c r="T82" s="157" t="s">
+        <v>594</v>
+      </c>
+      <c r="U82" s="157" t="s">
+        <v>594</v>
+      </c>
+      <c r="V82" s="158">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="59" t="s">
+        <v>618</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>595</v>
+      </c>
+      <c r="D83" s="59" t="s">
         <v>578</v>
       </c>
-      <c r="G82" s="140">
-        <v>3.0101515049977098E+18</v>
-      </c>
-      <c r="H82" s="138" t="s">
-        <v>418</v>
-      </c>
-      <c r="I82" s="138" t="s">
-        <v>419</v>
-      </c>
-      <c r="J82" s="138" t="s">
-        <v>323</v>
-      </c>
-      <c r="K82" s="138" t="s">
-        <v>326</v>
-      </c>
-      <c r="L82" s="110">
-        <v>22</v>
-      </c>
-      <c r="M82" s="138">
-        <v>220</v>
-      </c>
-      <c r="N82" s="138">
-        <v>73.8</v>
-      </c>
-      <c r="O82" s="138">
-        <v>0.88</v>
-      </c>
-      <c r="P82" s="138">
-        <v>1770</v>
-      </c>
-      <c r="Q82" s="139">
-        <v>186</v>
-      </c>
-      <c r="R82" s="139" t="s">
-        <v>602</v>
-      </c>
-      <c r="S82" s="139" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="141" t="s">
-        <v>618</v>
-      </c>
-      <c r="B83" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="C83" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="D83" s="59" t="s">
-        <v>586</v>
-      </c>
       <c r="E83" s="59" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F83" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="G83" s="137" t="s">
+      <c r="G83" s="155" t="s">
         <v>324</v>
       </c>
       <c r="H83" s="59" t="s">
@@ -9199,7 +10394,7 @@
       <c r="K83" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="L83" s="110">
+      <c r="L83" s="124">
         <v>22</v>
       </c>
       <c r="M83" s="59">
@@ -9214,97 +10409,117 @@
       <c r="P83" s="59">
         <v>1770</v>
       </c>
-      <c r="Q83" s="58" t="s">
-        <v>324</v>
+      <c r="Q83" s="124">
+        <f t="shared" si="0"/>
+        <v>528</v>
       </c>
       <c r="R83" s="58" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="S83" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="T83" s="58"/>
-    </row>
-    <row r="84" spans="1:20" s="139" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="141" t="s">
+      <c r="T83" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="U83" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="V83" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="W83" s="58"/>
+    </row>
+    <row r="84" spans="1:23" s="157" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="156" t="s">
         <v>619</v>
       </c>
-      <c r="B84" s="138" t="s">
-        <v>324</v>
-      </c>
-      <c r="C84" s="138" t="s">
-        <v>549</v>
-      </c>
-      <c r="D84" s="138" t="s">
-        <v>586</v>
-      </c>
-      <c r="E84" s="138" t="s">
+      <c r="B84" s="156" t="s">
+        <v>324</v>
+      </c>
+      <c r="C84" s="156" t="s">
+        <v>544</v>
+      </c>
+      <c r="D84" s="156" t="s">
+        <v>578</v>
+      </c>
+      <c r="E84" s="156" t="s">
         <v>347</v>
       </c>
-      <c r="F84" s="138" t="s">
+      <c r="F84" s="156" t="s">
         <v>353</v>
       </c>
-      <c r="G84" s="138">
+      <c r="G84" s="156">
         <v>20166</v>
       </c>
-      <c r="H84" s="138" t="s">
+      <c r="H84" s="156" t="s">
         <v>418</v>
       </c>
-      <c r="I84" s="138" t="s">
+      <c r="I84" s="156" t="s">
         <v>473</v>
       </c>
-      <c r="J84" s="138" t="s">
+      <c r="J84" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="K84" s="138" t="s">
+      <c r="K84" s="156" t="s">
         <v>326</v>
       </c>
-      <c r="L84" s="110">
+      <c r="L84" s="124">
         <v>30</v>
       </c>
-      <c r="M84" s="138">
+      <c r="M84" s="156">
         <v>220</v>
       </c>
-      <c r="N84" s="138">
+      <c r="N84" s="156">
         <v>99.5</v>
       </c>
-      <c r="O84" s="138">
+      <c r="O84" s="156">
         <v>0.86</v>
       </c>
-      <c r="P84" s="138">
+      <c r="P84" s="156">
         <v>1760</v>
       </c>
-      <c r="Q84" s="139" t="s">
-        <v>324</v>
-      </c>
-      <c r="R84" s="139" t="s">
-        <v>324</v>
-      </c>
-      <c r="S84" s="139" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="142" t="s">
+      <c r="Q84" s="124">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="R84" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="S84" s="157" t="s">
+        <v>324</v>
+      </c>
+      <c r="T84" s="157" t="s">
+        <v>324</v>
+      </c>
+      <c r="U84" s="157" t="s">
+        <v>324</v>
+      </c>
+      <c r="V84" s="158" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="62" t="s">
         <v>620</v>
       </c>
       <c r="B85" s="62" t="s">
         <v>475</v>
       </c>
       <c r="C85" s="62" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D85" s="62" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E85" s="62" t="s">
         <v>300</v>
       </c>
       <c r="F85" s="62" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G85" s="62" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H85" s="62" t="s">
         <v>418</v>
@@ -9333,83 +10548,103 @@
       <c r="P85" s="62">
         <v>1770</v>
       </c>
-      <c r="Q85" s="63">
+      <c r="Q85" s="49">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="R85" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="S85" s="63">
         <v>200</v>
       </c>
-      <c r="R85" s="63" t="s">
+      <c r="T85" s="63" t="s">
+        <v>594</v>
+      </c>
+      <c r="U85" s="63" t="s">
+        <v>594</v>
+      </c>
+      <c r="V85" s="122">
+        <v>2017</v>
+      </c>
+      <c r="W85" s="58"/>
+    </row>
+    <row r="86" spans="1:23" s="157" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="164" t="s">
+        <v>621</v>
+      </c>
+      <c r="B86" s="156" t="s">
+        <v>324</v>
+      </c>
+      <c r="C86" s="164" t="s">
+        <v>603</v>
+      </c>
+      <c r="D86" s="164" t="s">
+        <v>578</v>
+      </c>
+      <c r="E86" s="156" t="s">
+        <v>347</v>
+      </c>
+      <c r="F86" s="164" t="s">
         <v>602</v>
       </c>
-      <c r="S85" s="63" t="s">
-        <v>602</v>
-      </c>
-      <c r="T85" s="58"/>
-    </row>
-    <row r="86" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="62" t="s">
-        <v>621</v>
-      </c>
-      <c r="B86" s="138" t="s">
-        <v>324</v>
-      </c>
-      <c r="C86" s="62" t="s">
-        <v>611</v>
-      </c>
-      <c r="D86" s="62" t="s">
-        <v>586</v>
-      </c>
-      <c r="E86" s="138" t="s">
-        <v>347</v>
-      </c>
-      <c r="F86" s="62" t="s">
-        <v>610</v>
-      </c>
-      <c r="G86" s="62">
+      <c r="G86" s="164">
         <v>6459</v>
       </c>
-      <c r="H86" s="62" t="s">
+      <c r="H86" s="164" t="s">
         <v>418</v>
       </c>
-      <c r="I86" s="62" t="s">
+      <c r="I86" s="164" t="s">
         <v>514</v>
       </c>
-      <c r="J86" s="62" t="s">
+      <c r="J86" s="164" t="s">
         <v>323</v>
       </c>
-      <c r="K86" s="62" t="s">
+      <c r="K86" s="164" t="s">
         <v>385</v>
       </c>
-      <c r="L86" s="62">
+      <c r="L86" s="49">
         <v>110</v>
       </c>
-      <c r="M86" s="62">
-        <v>220</v>
-      </c>
-      <c r="N86" s="62">
-        <v>340</v>
-      </c>
-      <c r="O86" s="62">
+      <c r="M86" s="164">
+        <v>440</v>
+      </c>
+      <c r="N86" s="164">
+        <v>170</v>
+      </c>
+      <c r="O86" s="164">
         <v>0.85</v>
       </c>
-      <c r="P86" s="62">
+      <c r="P86" s="164">
         <v>1780</v>
       </c>
-      <c r="Q86" s="63">
+      <c r="Q86" s="49">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
+      <c r="R86" s="157" t="s">
+        <v>491</v>
+      </c>
+      <c r="S86" s="165">
         <v>1000</v>
       </c>
-      <c r="R86" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="S86" s="63" t="s">
-        <v>324</v>
-      </c>
-      <c r="T86" s="58"/>
+      <c r="T86" s="165" t="s">
+        <v>324</v>
+      </c>
+      <c r="U86" s="165" t="s">
+        <v>324</v>
+      </c>
+      <c r="V86" s="165" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9422,42 +10657,42 @@
       <selection activeCell="A196" sqref="A196:A197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.90625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="17.6328125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="35.90625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.6328125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="19" style="8" customWidth="1"/>
-    <col min="10" max="11" width="15.36328125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="17.6328125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.54296875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="11.08984375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="16.6328125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="18.1796875" style="8" customWidth="1"/>
-    <col min="20" max="20" width="15.36328125" style="8" customWidth="1"/>
+    <col min="10" max="11" width="15.33203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="18.21875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="8" customWidth="1"/>
     <col min="21" max="21" width="11" style="8" customWidth="1"/>
-    <col min="22" max="22" width="18.08984375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="18.109375" style="8" customWidth="1"/>
     <col min="23" max="24" width="14" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="8.81640625" style="8"/>
+    <col min="25" max="16384" width="8.77734375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-    </row>
-    <row r="2" spans="1:25" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+    </row>
+    <row r="2" spans="1:25" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>459</v>
       </c>
@@ -9534,7 +10769,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -9564,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -9594,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -9624,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -9654,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>8</v>
       </c>
@@ -9730,7 +10965,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>213</v>
       </c>
@@ -9760,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -9790,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
@@ -9866,7 +11101,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>215</v>
       </c>
@@ -9896,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -9926,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>13</v>
       </c>
@@ -10002,7 +11237,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>227</v>
       </c>
@@ -10032,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -10062,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>15</v>
       </c>
@@ -10138,7 +11373,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>229</v>
       </c>
@@ -10168,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -10198,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
@@ -10274,7 +11509,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>231</v>
       </c>
@@ -10304,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>140</v>
       </c>
@@ -10334,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="52" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" s="52" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>140</v>
       </c>
@@ -10410,7 +11645,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>142</v>
       </c>
@@ -10440,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>149</v>
       </c>
@@ -10470,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>149</v>
       </c>
@@ -10546,7 +11781,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>144</v>
       </c>
@@ -10576,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>150</v>
       </c>
@@ -10606,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>150</v>
       </c>
@@ -10682,7 +11917,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>146</v>
       </c>
@@ -10711,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>462</v>
       </c>
@@ -10737,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>462</v>
       </c>
@@ -10813,7 +12048,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>148</v>
       </c>
@@ -10843,7 +12078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>23</v>
       </c>
@@ -10873,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>23</v>
       </c>
@@ -10949,7 +12184,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>241</v>
       </c>
@@ -10979,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
@@ -11009,7 +12244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="56" t="s">
         <v>26</v>
       </c>
@@ -11085,7 +12320,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>243</v>
       </c>
@@ -11111,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>28</v>
       </c>
@@ -11141,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="51" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" s="51" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="56" t="s">
         <v>28</v>
       </c>
@@ -11217,7 +12452,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>245</v>
       </c>
@@ -11245,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
@@ -11274,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="56" t="s">
         <v>30</v>
       </c>
@@ -11350,7 +12585,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>247</v>
       </c>
@@ -11378,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>32</v>
       </c>
@@ -11408,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="56" t="s">
         <v>32</v>
       </c>
@@ -11484,7 +12719,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>249</v>
       </c>
@@ -11514,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>250</v>
       </c>
@@ -11544,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>250</v>
       </c>
@@ -11620,7 +12855,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>328</v>
       </c>
@@ -11648,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>251</v>
       </c>
@@ -11678,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>251</v>
       </c>
@@ -11754,7 +12989,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>259</v>
       </c>
@@ -11782,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>252</v>
       </c>
@@ -11812,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="56" t="s">
         <v>252</v>
       </c>
@@ -11886,7 +13121,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>261</v>
       </c>
@@ -11916,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>253</v>
       </c>
@@ -11946,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="56" t="s">
         <v>253</v>
       </c>
@@ -12022,7 +13257,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>263</v>
       </c>
@@ -12049,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>254</v>
       </c>
@@ -12079,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="56" t="s">
         <v>254</v>
       </c>
@@ -12155,7 +13390,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>265</v>
       </c>
@@ -12185,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>255</v>
       </c>
@@ -12215,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="56" t="s">
         <v>255</v>
       </c>
@@ -12291,7 +13526,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>267</v>
       </c>
@@ -12321,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>256</v>
       </c>
@@ -12351,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="56" t="s">
         <v>256</v>
       </c>
@@ -12427,7 +13662,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>269</v>
       </c>
@@ -12457,7 +13692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>257</v>
       </c>
@@ -12487,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="56" t="s">
         <v>257</v>
       </c>
@@ -12563,7 +13798,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>271</v>
       </c>
@@ -12593,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>272</v>
       </c>
@@ -12623,7 +13858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="56" t="s">
         <v>272</v>
       </c>
@@ -12699,7 +13934,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>279</v>
       </c>
@@ -12729,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>273</v>
       </c>
@@ -12759,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="56" t="s">
         <v>273</v>
       </c>
@@ -12835,7 +14070,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
         <v>281</v>
       </c>
@@ -12865,7 +14100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>274</v>
       </c>
@@ -12895,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="56" t="s">
         <v>274</v>
       </c>
@@ -12967,7 +14202,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
         <v>283</v>
       </c>
@@ -12997,7 +14232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>275</v>
       </c>
@@ -13027,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="56" t="s">
         <v>275</v>
       </c>
@@ -13103,7 +14338,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
         <v>285</v>
       </c>
@@ -13133,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>276</v>
       </c>
@@ -13163,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="56" t="s">
         <v>276</v>
       </c>
@@ -13239,7 +14474,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>287</v>
       </c>
@@ -13269,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>277</v>
       </c>
@@ -13299,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="56" t="s">
         <v>277</v>
       </c>
@@ -13375,7 +14610,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
         <v>289</v>
       </c>
@@ -13405,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25" s="42" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:25" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="40" t="s">
         <v>151</v>
       </c>
@@ -13481,7 +14716,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:25" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>151</v>
       </c>
@@ -13511,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="36.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:25" ht="36.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>154</v>
       </c>
@@ -13540,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25" s="42" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="40" t="s">
         <v>154</v>
       </c>
@@ -13616,7 +14851,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="32.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" ht="32.549999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>156</v>
       </c>
@@ -13646,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="33.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:25" ht="33.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>158</v>
       </c>
@@ -13676,7 +14911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="40" t="s">
         <v>158</v>
       </c>
@@ -13752,7 +14987,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
         <v>290</v>
       </c>
@@ -13782,7 +15017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:25" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>163</v>
       </c>
@@ -13812,7 +15047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="40" t="s">
         <v>163</v>
       </c>
@@ -13888,7 +15123,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>162</v>
       </c>
@@ -13918,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>164</v>
       </c>
@@ -13948,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="40" t="s">
         <v>164</v>
       </c>
@@ -14024,7 +15259,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:25" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>168</v>
       </c>
@@ -14054,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="32.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:25" ht="32.549999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>166</v>
       </c>
@@ -14084,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="40" t="s">
         <v>166</v>
       </c>
@@ -14136,7 +15371,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" ht="25.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>167</v>
       </c>
@@ -14166,7 +15401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:25" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>52</v>
       </c>
@@ -14196,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:25" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="27" t="s">
         <v>413</v>
       </c>
@@ -14272,7 +15507,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:25" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
         <v>414</v>
       </c>
@@ -14302,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>170</v>
       </c>
@@ -14332,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25" s="42" customFormat="1" ht="43.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:25" s="42" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="40" t="s">
         <v>171</v>
       </c>
@@ -14408,7 +15643,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>172</v>
       </c>
@@ -14438,7 +15673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>173</v>
       </c>
@@ -14468,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="21" t="s">
         <v>174</v>
       </c>
@@ -14544,7 +15779,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
         <v>175</v>
       </c>
@@ -14574,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>176</v>
       </c>
@@ -14604,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="27" t="s">
         <v>177</v>
       </c>
@@ -14680,7 +15915,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
         <v>435</v>
       </c>
@@ -14710,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>179</v>
       </c>
@@ -14740,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21" t="s">
         <v>180</v>
       </c>
@@ -14816,7 +16051,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="19" t="s">
         <v>181</v>
       </c>
@@ -14846,7 +16081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>182</v>
       </c>
@@ -14876,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="27" t="s">
         <v>183</v>
       </c>
@@ -14949,7 +16184,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
         <v>184</v>
       </c>
@@ -14979,7 +16214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>185</v>
       </c>
@@ -15009,7 +16244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="21" t="s">
         <v>186</v>
       </c>
@@ -15085,7 +16320,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>187</v>
       </c>
@@ -15115,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>56</v>
       </c>
@@ -15145,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:25" s="22" customFormat="1" ht="23.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:25" s="22" customFormat="1" ht="23.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="21" t="s">
         <v>423</v>
       </c>
@@ -15221,7 +16456,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:25" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
         <v>424</v>
       </c>
@@ -15251,7 +16486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:25" ht="31.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>59</v>
       </c>
@@ -15281,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="27" t="s">
         <v>209</v>
       </c>
@@ -15357,7 +16592,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19" t="s">
         <v>210</v>
       </c>
@@ -15387,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:25" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>61</v>
       </c>
@@ -15417,7 +16652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:25" s="22" customFormat="1" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:25" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="21" t="s">
         <v>216</v>
       </c>
@@ -15493,7 +16728,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:25" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19" t="s">
         <v>217</v>
       </c>
@@ -15523,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="26.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:25" ht="26.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>63</v>
       </c>
@@ -15553,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:25" s="22" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" s="22" customFormat="1" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="27" t="s">
         <v>218</v>
       </c>
@@ -15629,7 +16864,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:25" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19" t="s">
         <v>219</v>
       </c>
@@ -15659,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="29.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" ht="29.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>65</v>
       </c>
@@ -15689,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" s="22" customFormat="1" ht="18.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" s="22" customFormat="1" ht="18.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
         <v>220</v>
       </c>
@@ -15765,7 +17000,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="21.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" ht="21.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="19" t="s">
         <v>221</v>
       </c>
@@ -15795,7 +17030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>67</v>
       </c>
@@ -15825,7 +17060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:25" s="22" customFormat="1" ht="18.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" s="22" customFormat="1" ht="18.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="27" t="s">
         <v>207</v>
       </c>
@@ -15901,7 +17136,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
         <v>208</v>
       </c>
@@ -15931,7 +17166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>69</v>
       </c>
@@ -15961,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:25" s="22" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:25" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="29" t="s">
         <v>222</v>
       </c>
@@ -16037,7 +17272,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:25" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
         <v>223</v>
       </c>
@@ -16067,7 +17302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>71</v>
       </c>
@@ -16097,7 +17332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>74</v>
       </c>
@@ -16127,7 +17362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>76</v>
       </c>
@@ -16157,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>78</v>
       </c>
@@ -16187,7 +17422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>80</v>
       </c>
@@ -16217,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>82</v>
       </c>
@@ -16247,7 +17482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>84</v>
       </c>
@@ -16277,7 +17512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>86</v>
       </c>
@@ -16307,7 +17542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>88</v>
       </c>
@@ -16337,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>90</v>
       </c>
@@ -16367,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>93</v>
       </c>
@@ -16397,7 +17632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>95</v>
       </c>
@@ -16427,7 +17662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>98</v>
       </c>
@@ -16457,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>100</v>
       </c>
@@ -16487,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>103</v>
       </c>
@@ -16517,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>105</v>
       </c>
@@ -16547,7 +17782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>108</v>
       </c>
@@ -16577,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>110</v>
       </c>
@@ -16607,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
         <v>195</v>
       </c>
@@ -16630,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
         <v>196</v>
       </c>
@@ -16656,7 +17891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>113</v>
       </c>
@@ -16686,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11" t="s">
         <v>197</v>
       </c>
@@ -16709,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="13" t="s">
         <v>198</v>
       </c>
@@ -16735,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="28.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>115</v>
       </c>
@@ -16765,7 +18000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="14.4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
         <v>199</v>
       </c>
@@ -16788,7 +18023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A174" s="13" t="s">
         <v>200</v>
       </c>
@@ -16810,7 +18045,7 @@
       <c r="Q174" s="20"/>
       <c r="R174" s="20"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>117</v>
       </c>
@@ -16837,7 +18072,7 @@
       <c r="R175" s="10"/>
       <c r="S175" s="3"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
         <v>201</v>
       </c>
@@ -16856,7 +18091,7 @@
       <c r="Q176" s="23"/>
       <c r="R176" s="23"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" s="13" t="s">
         <v>202</v>
       </c>
@@ -16878,7 +18113,7 @@
       <c r="Q177" s="20"/>
       <c r="R177" s="20"/>
     </row>
-    <row r="178" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>119</v>
       </c>
@@ -16905,7 +18140,7 @@
       <c r="R178" s="10"/>
       <c r="S178" s="3"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>203</v>
       </c>
@@ -16924,7 +18159,7 @@
       <c r="Q179" s="23"/>
       <c r="R179" s="23"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>204</v>
       </c>
@@ -16946,7 +18181,7 @@
       <c r="Q180" s="20"/>
       <c r="R180" s="20"/>
     </row>
-    <row r="181" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>120</v>
       </c>
@@ -16973,7 +18208,7 @@
       <c r="R181" s="10"/>
       <c r="S181" s="3"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
         <v>224</v>
       </c>
@@ -16992,7 +18227,7 @@
       <c r="Q182" s="23"/>
       <c r="R182" s="23"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" s="13" t="s">
         <v>225</v>
       </c>
@@ -17014,7 +18249,7 @@
       <c r="Q183" s="20"/>
       <c r="R183" s="20"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>121</v>
       </c>
@@ -17041,7 +18276,7 @@
       <c r="R184" s="10"/>
       <c r="S184" s="3"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
         <v>159</v>
       </c>
@@ -17063,7 +18298,7 @@
       <c r="R185" s="4"/>
       <c r="S185" s="3"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" s="18" t="s">
         <v>160</v>
       </c>
@@ -17088,7 +18323,7 @@
       <c r="R186" s="16"/>
       <c r="S186" s="3"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>124</v>
       </c>
@@ -17115,7 +18350,7 @@
       <c r="R187" s="10"/>
       <c r="S187" s="3"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
         <v>169</v>
       </c>
@@ -17137,7 +18372,7 @@
       <c r="R188" s="4"/>
       <c r="S188" s="3"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" s="18" t="s">
         <v>178</v>
       </c>
@@ -17162,7 +18397,7 @@
       <c r="R189" s="16"/>
       <c r="S189" s="3"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>192</v>
       </c>
@@ -17189,7 +18424,7 @@
       <c r="R190" s="10"/>
       <c r="S190" s="3"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
         <v>232</v>
       </c>
@@ -17214,7 +18449,7 @@
       <c r="R191" s="4"/>
       <c r="S191" s="3"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
         <v>233</v>
       </c>
@@ -17238,7 +18473,7 @@
       <c r="Q192" s="20"/>
       <c r="R192" s="20"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>194</v>
       </c>
@@ -17265,7 +18500,7 @@
       <c r="R193" s="10"/>
       <c r="S193" s="3"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
         <v>238</v>
       </c>
@@ -17290,7 +18525,7 @@
       <c r="R194" s="4"/>
       <c r="S194" s="3"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A195" s="18" t="s">
         <v>239</v>
       </c>
@@ -17315,7 +18550,7 @@
       <c r="R195" s="16"/>
       <c r="S195" s="3"/>
     </row>
-    <row r="196" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>127</v>
       </c>
@@ -17342,7 +18577,7 @@
       <c r="R196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>130</v>
       </c>
@@ -17369,7 +18604,7 @@
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
     </row>
-    <row r="198" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>132</v>
       </c>
@@ -17396,7 +18631,7 @@
       <c r="R198" s="10"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
         <v>234</v>
       </c>
@@ -17421,7 +18656,7 @@
       <c r="R199" s="4"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="200" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="13" t="s">
         <v>235</v>
       </c>
@@ -17446,7 +18681,7 @@
       <c r="R200" s="16"/>
       <c r="S200" s="3"/>
     </row>
-    <row r="201" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>134</v>
       </c>
@@ -17473,7 +18708,7 @@
       <c r="R201" s="3"/>
       <c r="S201" s="3"/>
     </row>
-    <row r="202" spans="1:19" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
         <v>236</v>
       </c>
@@ -17498,7 +18733,7 @@
       <c r="R202" s="4"/>
       <c r="S202" s="3"/>
     </row>
-    <row r="203" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="18" t="s">
         <v>237</v>
       </c>
@@ -17525,7 +18760,7 @@
       <c r="R203" s="16"/>
       <c r="S203" s="3"/>
     </row>
-    <row r="204" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>135</v>
       </c>
@@ -17552,7 +18787,7 @@
       <c r="R204" s="3"/>
       <c r="S204" s="3"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -17573,7 +18808,7 @@
       <c r="R205" s="3"/>
       <c r="S205" s="3"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -17594,7 +18829,7 @@
       <c r="R206" s="3"/>
       <c r="S206" s="3"/>
     </row>
-    <row r="207" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>136</v>
       </c>
@@ -17621,7 +18856,7 @@
       <c r="R207" s="3"/>
       <c r="S207" s="3"/>
     </row>
-    <row r="208" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>138</v>
       </c>
@@ -17648,7 +18883,7 @@
       <c r="R208" s="3"/>
       <c r="S208" s="3"/>
     </row>
-    <row r="209" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>139</v>
       </c>
@@ -17689,23 +18924,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b8724930-3eb3-40b5-912f-63a542c79450" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008417DE73F65C1044A842071FF60F9C24" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2f7779624259339e165a6ddb578d532f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b8724930-3eb3-40b5-912f-63a542c79450" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9c1fe8137e1d498bcb24215ff06365a" ns3:_="">
     <xsd:import namespace="b8724930-3eb3-40b5-912f-63a542c79450"/>
@@ -17913,31 +19131,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59489610-4A72-41EB-ADD4-F523401201B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b8724930-3eb3-40b5-912f-63a542c79450"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C06C305-4FFE-445C-A3E8-27E6924C4D5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b8724930-3eb3-40b5-912f-63a542c79450" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD598EE-C738-413D-B845-A6334C427961}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17953,4 +19164,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C06C305-4FFE-445C-A3E8-27E6924C4D5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59489610-4A72-41EB-ADD4-F523401201B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b8724930-3eb3-40b5-912f-63a542c79450"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DATOS-MOTORES-PLANTA.xlsx
+++ b/DATOS-MOTORES-PLANTA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1366DF-9883-48F4-BF40-0D61D538A87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF43501-9D55-4325-9DA0-D5A882543ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="636">
   <si>
     <t>Ubicación</t>
   </si>
@@ -2004,6 +2004,9 @@
   </si>
   <si>
     <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>H2-HO01-VE01-MT01</t>
   </si>
 </sst>
 </file>
@@ -4689,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731214AF-4FD7-4F42-8356-E06FD5D5889D}">
   <dimension ref="A1:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5755,7 +5758,7 @@
     </row>
     <row r="16" spans="1:22" s="81" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="142" t="s">
-        <v>327</v>
+        <v>635</v>
       </c>
       <c r="B16" s="129" t="s">
         <v>482</v>
@@ -18924,6 +18927,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b8724930-3eb3-40b5-912f-63a542c79450" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008417DE73F65C1044A842071FF60F9C24" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2f7779624259339e165a6ddb578d532f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b8724930-3eb3-40b5-912f-63a542c79450" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9c1fe8137e1d498bcb24215ff06365a" ns3:_="">
     <xsd:import namespace="b8724930-3eb3-40b5-912f-63a542c79450"/>
@@ -19131,24 +19151,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59489610-4A72-41EB-ADD4-F523401201B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b8724930-3eb3-40b5-912f-63a542c79450"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b8724930-3eb3-40b5-912f-63a542c79450" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C06C305-4FFE-445C-A3E8-27E6924C4D5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD598EE-C738-413D-B845-A6334C427961}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19164,28 +19191,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C06C305-4FFE-445C-A3E8-27E6924C4D5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59489610-4A72-41EB-ADD4-F523401201B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b8724930-3eb3-40b5-912f-63a542c79450"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>